--- a/deuChatbot/research_result/table_to_json(3000_300).xlsx
+++ b/deuChatbot/research_result/table_to_json(3000_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21019,6 +21019,6884 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 명백히 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 원본에서 제공된 정보와 상반된 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 디자인조형학과의 실기시험에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원본 텍스트의 맥락과 맞지 않으며, 부적절한 주장을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬운 구조로 되어 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6712730903402357</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 '디자인조형학과'의 실기시험 관련 내용이 포함되어 있지 않습니다. 디자인조형학과의 실기시험은 대체로 그림 그리기, 모델링, 캐릭터 디자인 등 다양한 종류가 있을 수 있습니다.
+만약 디자인조형학과의 실기시험에 대한 자세한 정보를 원하신다면, 해당 학교나 입학사정관에게 직접 문의하시는 것이 가장 정확할 것입니다. 
+또는 'https://ipsi. deu. ac. kr/main. do' 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 배점 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 추가된 정보로 간주될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 포함하고 있지만, 배점 비율에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트와의 일관성이 완벽하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기 종목, 준비물, 주제, 화지 크기, 시간에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율이 추가된 부분이 있어 약간의 일관성 저하가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보는 원본에 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 의미적 불일치가 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.7945517976608889</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환'입니다. 각 종목별로 배점 비율은 다음과 같습니다:
+1. 기초디자인:
+   - 종목별 배점(비율): 700점 (70%)
+2. 사고의 전환:
+   - 종목별 배점(비율): 300점 (30%)
+준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+실기 주제는 다음과 같습니다:
+- 기초디자인: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 잠자리와 저울, 무궁화와 피망 등이 있습니다.
+- 사고의 전환: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 콜라병과 계절, 바이러스와 자유 등이 있습니다.
+화지 크기는 모두 '켄트지3절'입니다.
+시간은 각 종목 모두 5시간입니다.
+위 정보는 디자인조형학과의 실기고사에 대한 내용이며, 실제 시험에서는 이와 유사한 형태로 진행될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 인정대회 목록이 완전하게 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 대회 목록과 설명이 일관되게 제공됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 인정대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "각종국제대회"와 "주니어팀 소속으로 출전한 대회만 인정" 부분에서 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실적으로 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 복잡함이 있어 완전한 명확성에는 다소 부족할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9012093220445696</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 모집종목인 배드민턴(남)과 축구(남)의 경우, 다음과 같은 대회가 인정대회로 지정되어 있습니다.
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 실력을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제와 예시도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7761389587219608</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>2024년 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 중에서 각 1개씩 선정하여 연결된 주제를 추첨합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 원문과 상반된 내용을 담고 있습니다. 나군 실기/실적 전형에 대한 정보는 포함되어 있지만, 질문의 핵심인 학생부 교과 전형에 대한 정보는 잘못된 것입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있지만, 생성된 응답에서는 출결 점수가 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 학생부 교과 전형에 대한 질문에 대한 직접적인 답변이 아니며, 나군 실기/실적 전형에 대한 정보로 주제를 벗어나 있습니다. 그러나 출결 점수에 대한 언급이 있어 일부 관련성은 있지만, 질문의 핵심과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 나군 실기/실적 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 그러나 내부적으로는 논리적인 흐름이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 질문의 맥락과도 맞지 않습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 상충하여 혼란을 줄 수 있습니다. 따라서 이해 가능성은 있지만, 명확하지 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5969866252071717</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 실기/실적(경기실적우수자전형)에서는 출결 상황이 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석일수: 120점
+- 3~6일 결석일수: 90점
+- 7~12일 결석일수: 60점
+- 13~20일 결석일수: 30점
+- 21일 이상 결석일수: 0점
+따라서, 출결 점수가 학생부교과 전형에서 중요한 요소 중 하나로 작용합니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 실제로는 17명이 모집된다는 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 모집 인원이 명확히 제시되어 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 웹사이트를 참조하라는 제안은 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 논리적 흐름이 다소 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 부적절한 정보로 인해 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 부정확성으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.543158532654286</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 국어국문학과에 대한 모집인원이 직접적으로 나와 있지 않습니다. 현재 데이터에서는 인문사회과학대학의 다른 학과들에 대한 모집인원만 확인할 수 있습니다. 만약 국어국문학과의 모집인원을 알고 싶다면, 해당 대학이나 입시 관련 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6613687803643395</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 
+인문사회과학대학의 계열이 "인문사회"이고, 모집단위가 "영어영문학과 - 교직"이며, 다군 수능(일반학생전형)으로 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8305456692101937</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 점수를 정확하게 반영하고 있으며, 추가적인 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8846518052624857</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 영어 등급별로 정해진 점수이며, 수능 성적 산출 방법에 따라 이 점수가 학생들의 총점에 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있으며, 예술고 학생의 지원 가능성에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 상반된 내용으로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생이 지원할 수 있다고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하며, 문맥에 맞지 않는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6654034734799849</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 관련 정보는 다음과 같습니다:
+- **2024학년도 고교유형별 지원자격**에서 확인할 수 있습니다.
+- **나군 학생부교과(농어촌학생전형)**의 **고교유형별 지원자격** 항목을 보면, 예술고 학생이 지원 가능하다는 내용이 포함되어 있습니다.
+따라서 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 기록과 배점에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8651776136539235</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+```markdown
+| 등급 | 제자리 멀리뛰기(여) | Z-런(여) |
+|------|-------------------|----------|
+| 4    | 218~221           | 14.80~14.99 |
+```
+이 정보를 바탕으로, 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이고, 이에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 출결 반영 비율이 12%라는 사실을 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있어 약간의 관련성은 있지만, 주제에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5881589752236497</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로 동의대학교 경기지도학과의 출결 반영 방식에 대한 명확한 정보가 없습니다. 출결 상황은 다른 전형에서 일부 반영되지만, 경기지도학과에 특히 특화된 출결 반영 비율에 대한 정보는 찾을 수 없습니다.
+만약 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시거나, 동의대학교 입학처로 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 물리치료학과의 모집 인원 수에 대한 정보를 부정확하게 전달하고 있습니다. 원문에서는 "4명을 모집합니다"라고 명확히 언급하고 있지만, 생성된 응답은 모집 인원 수가 "직접적으로 언급되어 있지 않다"고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 명확히 4명을 모집한다고 했으나, 생성된 응답은 이를 부정하며 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 물리치료학과의 모집 인원에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 관련 정보에 대한 언급만 있습니다. 따라서 원문과의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원문과의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다. 정보가 명확히 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 정보를 왜곡하고 있습니다. 모집 인원 수에 대한 잘못된 해석이 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘못 해석하고 있으며, 정보의 전달이 적절하지 않습니다. 원문의 핵심 내용을 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다. 따라서 이해하기 쉬운 정도는 중간 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.692640154736846</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 가군에서 물리치료학과에 대한 모집 인원 수가 직접적으로 언급되어 있지 않습니다. 
+물리치료학과와 관련된 정보를 찾기 위해서는, 추가적인 데이터나 해당 학과의 정확한 전형 명칭을 확인해야 합니다. 제공된 데이터 중에서 물리치료학과와 관련이 있는 것은 "수능 위주" 또는 "실기/실적 위주"로 모집하는 전형들이 있지만, 특정 학과에 대한 모집 인원 수는 포함되어 있지 않습니다.
+더 자세한 정보를 얻으시려면, 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 2024학년도 입시 안내를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.547688296604983</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 반영하고 있지만, "응용화학과에 대한 구체적인 수능 최저기준은 해당하는 항목에서 찾을 수 없습니다."라는 부분은 다소 모호하게 표현되어 있어, 명확한 사실을 전달하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저 기준이 없다는 점에서 일관성을 유지하고 있지만, "다른 전형이나 학과의 경우 수능 최저기준이 없음을 알 수 있지만"이라는 문구는 다소 혼란을 줄 수 있습니다. 응답이 명확하게 일관된 정보를 제공하지 못하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 최저 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 주제에 대한 흐름이 잘 유지되고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 사실을 정확하게 반영하고 있지만, 구체적인 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5035430119960798</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서 내에서는 명시되어 있지 않습니다. 다른 전형이나 학과의 경우 수능 최저기준이 없음을 알 수 있지만, 응용화학과에 대한 구체적인 수능 최저기준은 해당하는 항목에서 찾을 수 없습니다.
+더 자세한 정보를 얻으려면, 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 정확하게 나열하고 있으며, "라이프융합학부"에 대한 설명도 포함되어 있습니다. 그러나 "정확히 몇 개의 학과가 신설되었는지는 명시되어 있지 않습니다"라는 부분은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "정확히 몇 개의 학과가 신설되었는지는 명시되어 있지 않습니다"라는 문장이 원본의 명확한 목록과는 약간의 차이를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 "정확히 몇 개의 학과가 신설되었는지는 명시되어 있지 않습니다"라는 문장이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 신설된 학과에 대한 정보도 정확합니다. 그러나 "정확히 몇 개의 학과가 신설되었는지는 명시되어 있지 않습니다"라는 부분이 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 문장에서의 모호함이 점수를 낮추는 요소가 됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "정확히 몇 개의 학과가 신설되었는지는 명시되어 있지 않습니다"라는 문장이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서의 모호함이 이해도를 약간 떨어뜨릴 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.708002304592133</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)"가 있습니다. 그러나 "라이프융합학부"는 여러 전공을 포함하는 학부로 신설된 것이므로, 정확히 몇 개의 학과가 신설되었는지는 명시되어 있지 않습니다.
+위 정보를 바탕으로, 2024학년도에 동의대학교에서 신설된 학과와 학부는 다음과 같습니다:
+- 심리학과 (신설 학과)
+- 스마트항만물류학과 (신설 학과)
+- 창업투자경영학과 (신설 학과)
+- 라이프융합학부 (신설 학부)
+더 자세한 정보를 원하시면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에서는 서류 70%, 면접 30%라는 명확한 비율이 제시되었으나, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 전형요소 반영비율이 명확히 제시되었으나, 생성된 응답은 이를 부정하고 다른 정보를 요구하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원본에서 요구하는 정보에 대한 직접적인 답변이 없고, 대신 다른 방법을 제안하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 일치하지 않기 때문에 일관성이 떨어집니다. 정보의 흐름은 자연스럽지만, 내용의 정확성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본에서 제공된 구체적인 비율을 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 정보의 제공 방식이 적절하지 않습니다. 원본의 내용을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉽지만, 정보의 정확성이 결여되어 있어 이해하는 데 혼란을 줄 수 있습니다. 원본의 핵심 정보를 제공하지 않기 때문에 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6068915390540275</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 특정한 전형요소 반영비율이 명시되어 있지 않습니다. 
+따라서, 더 자세한 내용을 확인하기 위해서는 공식 홈페이지를 방문하여 해당 정보를 확인하시거나, 직접 동의대학교 입학처에 문의하시는 것이 좋겠습니다.
+[참고 링크](https://ipsi.deu.ac.kr/main.do)를 통해 동의대학교의 공식 웹사이트를 방문하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위에 대한 정보를 제공하고 있지만, 구체적인 학과명은 원본 텍스트에 명시된 모집단위와 일치하지 않습니다. 원본 텍스트는 의료·보건·생활대학, 공과대학, ICT융합공과대학을 언급하고 있으나, 생성된 응답에서는 특정 학과명들이 추가되어 있습니다. 따라서 일부 사실이 왜곡되었거나 추가된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, 특정 학과에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에서 언급된 모집단위와 생성된 응답에서 언급된 학과가 일치하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점 적용에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 특정 학과에 대한 정보가 추가되어 있어 정확성이 떨어집니다. 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 일부 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.8078425263618254</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과는 주로 공학 분야와 ICT융합공과대학 모집단위입니다. 구체적으로, 공과대학의 응용화학과, 의생명공학과, 식품공학과, 산업경영빅데이터공학과, 소프트웨어공학부(컴퓨터소프트웨어공학  - 공학, 응용소프트웨어공학) 등에서 수학(미적분 또는 기하) 응시자에게 가산점이 적용됩니다.
+또한, ICT융합공과대학 소프트웨어공학부에서도 동일하게 수학(미적분 또는 기하) 응시자에게 10%의 가산점을 부여합니다. 이와 같이 특정 학과에서는 수능에서의 성적이 더 높게 평가되므로, 해당 분야에 관심이 있는 지원자는 이러한 정보를 참고하여 선택할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 성적을 100% 반영한다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 성적 반영 방법에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7988774256527995</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적을 100%로 반영합니다. 
+따라서, 가군 수능(일반학생전형) 모집단위에서 수험생들의 수능 점수만으로 합격자를 선정하게 됩니다.
+더 자세한 내용은 공지사항이나 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 완전히 부정하고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에 명시된 날짜를 전혀 언급하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 실기고사 날짜를 명확히 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 실질적인 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 정확성이 전혀 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 부정확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6939848388821177</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 2024학년도 가군 실기고사 날짜에 대한 내용이 없습니다. 추가적인 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보세요. 해당 사이트에서 공식 일정과 날짜를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경기지도학과가 제외된다고 언급하고 있지만, 원문에서는 경기지도학과가 제외된다고 명시되어 있습니다. 또한 라이프융합학부에 대한 정보는 원문에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 경기지도학과가 제외된다는 점에서 모순이 발생합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 모집단위 제외에 대한 질문에 대한 답변을 제공하고 있지만, 추가적인 정보가 포함되어 있어 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 약해 논리적인 흐름이 다소 부족합니다. 특히, 라이프융합학부에 대한 언급이 원문과의 연관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 의미와 다소 일치하지 않지만, 주제와 관련된 정보를 제공하고 있어 의미적으로 적절한 부분도 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5544210555855026</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 경기지도학과와 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)가 모집을 중지한다고 알려져 있습니다. 이 외에 특정 모집단위가 제외되는 정보는 제공된 내용에서 확인할 수 없습니다. 더 자세한 정보를 원하시면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 보완하는 형태로 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 최저기준에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8511380200727712</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 관련 정보는 다음과 같습니다:
+- **전형명**: 다군 (일반학생전형)
+- **모집단위**: 전 모집단위
+- **수능최저기준**: 수능최저기준 없음
+따라서, 2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 내용을 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 그러나 전반적으로 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 각 항목이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8590524148123295</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 아동학과 (原来是保育·家政咨询学系)
+2. 금융경영학과 (原来是经济金融保险学系)
+3. 경영정보학과, e비즈니스학과 (原来是信息经营管理学系(经营信息学,e商务学))
+4. 부동산자산경영학부(부동산투자학, 부동산개발경영학) (原来是房地产金融·资产经营管理学系)
+5. 기계공학과, 로봇자동화공학과, 자동차공학과 (原来是机械汽车机器人部品工学系)
+6. 신소재공학과, 고분자나노공학과 (原来是新材料工学系)
+7. 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과 (原来是建筑工学系)
+8. 화학공학과, 환경공학과, 응용화학과 (原来是化学环境工学系)
+9. 의생명공학과, 바이오의약공학과, 식품공학과 (原来是生物应用工学系)
+10. 인간공학과, 제품디자인공학과 (原来是设计工程学系)
+11. 산업경영빅데이터공학과 (原来是产业融合信息技术学系)
+12. 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) (原来是创意软件工学系)
+13. 전기공학과, 전자공학과 (原来是电气电子通信工学系)
+14. 음악학과(클래식, 실용음악, 뉴미디어작곡) (原来是音乐学系)
+위와 같이 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8732728435963244</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 구체적인 내용을 잘못 전달하고 있습니다. 예를 들어, '학생부종합(평생학습자전형)'이라는 전형은 원문에 명시되어 있지 않으며, 전형의 세부 사항이 잘못 기술되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 원문에서 언급된 전형의 세부 사항과 생성된 응답의 내용이 서로 다릅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 전형 요소 변화에 대한 내용을 다루고 있지만, 원문에서 다루고 있는 구체적인 전형의 변화와는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원문과의 연결성이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않는 부분이 많아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족함이 많아 다차원적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7492090006403419</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형)**:
+   - 이 전형에서는 서류평가 영역이 주요하게 변경되었습니다. 각 평가영역별로 세부적인 평가 기준과 배점이 명시되어 있으며, 공동체역량, 학업역량, 전공적합성 등에 대한 평가가 이루어집니다.
+2. **학과 분리 및 신설**:
+   - 2024년에는 새로운 학과와 전공이 추가되었습니다. 예를 들어, 심리학과와 스마트항만물류학과, 창업투자경영학과 등이 신설되었으며, 기존의 일부 학과가 분리되거나 통합되었습니다.
+3. **정시모집군 변경**:
+   - 몇몇 학과의 정시모집군이 변경되었습니다. 예를 들어, 영어영문학과는 가군에서 다군으로, 로봇자동화공학과는 나군에서 가군으로 변경되었습니다.
+위와 같은 변화들이 2024학년도 동의대학교에서 이루어졌습니다. 자세한 내용은 공식 웹사이트를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 잘못 해석하고 있습니다. 응답에서는 레저스포츠학과와 태권도학과의 실기 비중이 70%라고 언급하고 있지만, 전체 전형의 실기 비중은 70%로 명시되어 있습니다. 따라서, 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전체 실기 비중이 70%라고 명시되어 있지만, 생성된 응답에서는 특정 학과의 비중을 30%로 언급하고 있어 서로 모순되는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 그러나 레저스포츠학과와 태권도학과에 대한 언급은 원본의 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적인 흐름이 약간 깨집니다. 원본의 정보와 일치하지 않기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않고 있습니다. 실기 비중에 대한 잘못된 해석이 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다. 특정 학과에 대한 언급은 적절하지만, 전체적인 맥락에서는 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6942257050681414</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과를 제외한 모든 학과의 실기 비중이 30%입니다. 
+특히, 레저스포츠학과와 태권도학과는 실기 비중이 70%로 더 높습니다.
+따라서, 정리하면:
+- 가군 실기/실적 전형에서 레저스포츠학과와 태권도학과의 실기 비중은 70%입니다.
+- 나머지 모든 학과의 실기 비중은 30%입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 설명이 포함되어 있지만 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8435057269206686</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 구성하고 있습니다. 
+라이프융합학부의 세부 전공 구성은 다음과 같습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+이러한 세부 전공들은 학생들이 다양한 삶의 영역에서 창업과 투자를 통해 성장할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 언급된 학과인 '체육학과'와 '레저스포츠학과'를 잘못 전달하고 있으며, '태권도학과'라는 잘못된 정보를 추가했습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있어 일관성이 없습니다. 원본 텍스트의 내용과 완전히 다릅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 그러나 실기고사에 대한 설명이 포함되어 있어 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다. 정보가 일관되지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 정보를 포함하고 있어 의미적으로 적절하지 않습니다. 그러나 실기고사에 대한 설명이 포함되어 있어 일부 적절함을 유지합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6146422917936519</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행해야 하는 학과는 레저스포츠학과와 태권도학과입니다.
+- **레저스포츠학과**: 이 학과에서는 제자리 멀리뛰기와 Z-런이라는 두 가지 종목을 실시합니다.
+- **태권도학과**: 이 학과에서는 품새, 시범, 겨루기 중에서 하나를 선택하여 실시하며, 각각에 대한 기초실기와 응용실기가 평가됩니다.
+이러한 정보는 해당 학과의 모집단위 및 실기종목을 참조할 때 유용합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 모든 학과를 포함하지 않고 있습니다. "의료·보건·생활, 공과대학, ICT융합공과대학 모집단위"와 같은 추가 정보는 원본 텍스트에 없으며, 이는 사실성을 저해합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 추가된 정보로 인해 일관성이 떨어집니다. 원본 텍스트에 나열된 모든 학과가 포함되지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하지만, 원본 텍스트에 명시된 모든 학과를 포함하지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 모든 학과를 포함하지 않으며, 추가된 정보가 사실과 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보의 추가로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.695122745165026</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군(일반학생전형)"은 다음과 같은 학과에서 지원이 가능합니다:
+- 의료·보건·생활, 공과대학, ICT융합공과대학 모집단위
+- 레저스포츠학과, 태권도학과
+따라서 실기/실적 위주 전형을 지원하려는 경우, 위의 학과 중에서 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 라이프융합학부의 전공을 정확하게 나열하고 있으며, 신설된 학부라는 점도 언급하고 있습니다. 그러나 "미래융합대학"이라는 명칭은 원문에 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "미래융합대학"이라는 새로운 명칭이 추가되어 일관성이 떨어집니다. 전공의 내용은 일치하지만, 학부의 명칭이 다르기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 전공에 대한 정보를 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "신설"이라는 표현이 반복되어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전공 목록과 그에 대한 설명이 잘 연결되어 있으며, 논리적인 흐름이 있습니다. 그러나 "신설"이라는 표현이 반복되어 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 내용은 정확하지만, "미래융합대학"이라는 명칭이 원문에 없기 때문에 정확성 점수가 약간 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 명칭의 차이로 인해 일부 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, "미래융합대학"이라는 표현이 추가되어 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 표현의 반복으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.7997930559403115</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 신설 (스타트업창업투자학)
+2. 신설 (뷰티비즈니스학)
+3. 신설 (라이프생활문화학)
+이러한 전공들은 학생들이 다양한 삶의 경험과 문화를 이해하며, 창업 및 비즈니스 분야에서의 역량을 키울 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있습니다. 또한, 지원 가능한 고등학교 유형에 대한 정보가 추가되었으나, 이는 원문에 명시된 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 추가된 정보가 원문과의 일관성을 떨어뜨립니다. 특히, 농어촌학생전형에 대한 언급이 없고, 지원 가능한 고등학교 유형에 대한 정보가 원문과 다르게 제시되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련성이 높지만, 원문에 포함된 중요한 세부사항이 누락되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡하여 이해하는 데 시간이 걸릴 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 떨어지는 부분이 있어 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서 제공된 중요한 세부사항이 누락되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일관성 및 정확성에서 부족함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서 적합합니다. 그러나 원문과의 차이로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6462347841000115</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请동의大学的一般学生入学类型。根据提供的信息，在"고교유형별 지원자격"部分中，一般学生入学类型的招生资格包括：
+- 一般高中的学生：支持申请
+- 自律高中的学生：支持申请
+- 特殊目的高中的学生：
+  - 科学高中、国际高中和外语高中：支持申请
+  - 艺术高中、体育高中：支持申请
+  - 技工高中：支持申请
+因此，作为特殊目的高中（如艺术高中或体育高中）的学生，你可以申请东义大学的一般学生入学类型。但是具体还需要查看你所要申请的专业是否有特别的限制条件。
+如果需要进一步确认，请访问东义大学官网 https://ipsi. deu.ac.kr/main.do 进行详细查询。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집 인원에 대한 정보가 잘못되었습니다. 원본 텍스트에 따르면 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로, 총 32명을 모집한다고 명시되어 있습니다. 그러나 생성된 응답에서는 중어중국학과의 모집 인원이 24명으로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시하고 있지만, 생성된 응답은 다른 학과의 모집 인원도 포함하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 관련 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 모집 인원 총합과 가장 많이 모집하는 학과에 대한 정보가 누락되어 있습니다. 그러나 여전히 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 학과의 모집 인원을 나열하고 있지만, 원본 텍스트의 핵심 정보와의 연결이 부족하여 일관된 흐름이 떨어집니다. 중어중국학과에 대한 정보가 강조되긴 하지만, 전체적인 구조가 다소 분산되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 모집 인원에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답이 원본 텍스트와의 일치성이 낮고, 정확성 및 일관성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 특히 모집 인원에 대한 정보가 부정확하여 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.8018352020718812</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+- 인문사회과학대학 국어국문학과 : 모집 인원 9명
+- 인문사회과학대학 중어중국학과 : 모집 인원 24명
+- 인문사회과학대학 일본학과 : 모집 인원 5명
+이 중에서 가장 많은 학과는 **중어중국학과**로, 모집 인원이 24명입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대로 설명하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으나, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 일관된 구조를 가지고 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6098588348492161</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우 동의대학교에서 농어촌학생전형을 통해 지원이 가능합니다. 그러나 특정 전형에 대한 자세한 지원 자격과 기타 요구 사항은 공지된 정보를 확인하시거나 대학 입학처와 직접 문의하시는 것이 좋습니다. 더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문은 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 성적을 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였으나, 생성된 응답은 그와 반대되는 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련하여 점수를 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련하여 점수를 낮추었습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6037705541220881</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 표준 변환 점수 합으로 450.71점입니다.
+이 숫자는 "ICT융합공과대학"에서 "소프트웨어공학부" 모집단위에 대한 "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"의 평균 값에서 얻은 것입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적에 대한 정보가 포함되어 있지 않다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 전형이나 모집단위의 정보만이 제공되어 있습니다"라는 부분은 원문에 명시되어 있지 않은 추가 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "다른 전형이나 모집단위의 정보만이 제공되어 있습니다"라는 문장은 원문과의 일관성이 떨어집니다. 원문에서는 다른 전형에 대한 정보가 언급되지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 소프트웨어공학부의 평균 성적에 대한 정보를 찾는 데 필요한 안내를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "해당 부서와 관련된 자세한 정보를 제공해 주시거나" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "다른 전형이나 모집단위의 정보만이 제공되어 있습니다"라는 문장이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 추가된 정보가 정확하지 않을 수 있습니다. 원문에 명시된 내용만을 기준으로 할 때, 정확성 점수는 4로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 문제가 있습니다. 전반적으로 양호한 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 추가된 정보가 원문과의 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.8054727793717521</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부에 대한 정보가 제공된 목록에서 확인해보니, 해당 부서의 정보는 포함되어 있지 않습니다. 다른 전형이나 모집단위의 정보만이 제공되어 있습니다.
+소프트웨어공학부에 대한 2024학년도 최초 합격자 평균 성적을 알고 싶으시다면, 해당 부서와 관련된 자세한 정보를 제공해 주시거나, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 확인해 보시는 것이 좋겠습니다.
+더 궁금하신 점이 있으시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 관련된 정보가 추가되어 있어 원본 텍스트와 다소 차이가 있습니다. 원본 텍스트에는 최초 합격자 등록에 대한 언급이 없으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용이 있어 일관성이 부족합니다. 특히 최초 합격자 등록에 대한 정보가 원본 텍스트에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있어 대체로 관련성이 높습니다. 그러나 추가된 등록 정보가 원본 텍스트와는 다소 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보가 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 차이로 인해 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8215838253882509</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+- **최초 합격자 발표 및 등록**: 
+  - 날짜: 2024년 2월 2일 (금) 14:00
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **최초 합격자 등록**: 
+  - 날짜: 2024년 2월 7일 (수) ~ 13일 (화)
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **충원 합격자 발표 및 등록**: 
+  - 첫 번째 충원:
+    - 날짜: 2024년 2월 14일 (수) 09:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 두 번째 충원:
+    - 날짜: 2024년 2월 15일 (목) 09:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **3차 이후 충원 합격자 발표 및 등록**: 
+  - 날짜: 2024년 2월 15일 (목) 19:00 ~ 20일 (화) 18시까지
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이 일정을 참고하여 합격자 발표 및 등록에 대한 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차에 대한 설명으로 대체하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 언급하지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 정보를 무시하고 일반적인 정보를 제공하고 있어 일관성이 부족합니다. 원본의 특정 날짜와 관련된 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 핵심 정보인 면접고사 일정에 대한 직접적인 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 중복되어 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 핵심 정보가 누락되어 있어 전체적인 일관성이 떨어집니다. 면접고사 일정에 대한 정보가 없기 때문에 응답의 일관성이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고 일반적인 정보만을 제공하고 있어 정확성이 낮습니다. 원본의 날짜 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 특히 사실성, 일관성, 정확성에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 특정 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3170746950819652</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사의 시간은 일반적으로 정해진 날짜에 따라 진행되며, 대체로 입시 일정 안에서 이루어집니다. 하지만 정확한 날짜와 시간은 해당 학교의 입학처 웹사이트나 공지사항을 통해 확인해야 합니다. 예를 들어, "https://ipsi. deu. ac. kr/main. do" 링크를 클릭하여 최신 정보를 확인할 수 있습니다.
+면접고사는 주로 정해진 날짜와 시간에 맞춰 진행되며, 이는 학교 입학처에서 공지합니다. 따라서 가장 신뢰할 수 있는 방법은 해당 학교의 공식 웹사이트나 입학처와 직접 연락하여 확인하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 한의예과의 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 한의예과의 최저학력 기준이 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되지만, 일부 문장이 더 매끄럽게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 복잡함이 있어 더 간단하게 표현될 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5944113610699345</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 없습니다. 한의예과와 관련된 특별한 최저학력 기준이 없거나, 해당 정보가 포함되어 있지 않아 확인할 수 없습니다.
+만약 한의예과의 최저학력 기준을 알고 싶다면, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 방문하여 자세한 정보를 확인해 보시는 것이 좋습니다. 해당 페이지에서 전형별 최저학력 기준 등 관련 정보를 찾아볼 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공하고 있지만, 기본적인 사실은 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다. 추가적인 설명도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있는 구조를 가지고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5784402635583126</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 정시모집군별로 수능 최저학력 기준을 설정하지 않았습니다. 각 학과와 모집단위 별로 수능 최저학력 기준이 없으므로, 모든 학생들은 수능 점수에 관계없이 지원 가능합니다.
+만약 특정한 정시모집군이나 학과에서 수능 최저학력 기준이 설정되어 있다면, 해당 정보는 제공된 데이터에서 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 https://ipsi.deu.ac.kr/main.do 웹사이트를 방문하여 확인해 보시거나, 대학 입학처에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, "충원합격자 1차 등록"에 대한 언급은 원본 텍스트에 없으며, "개별 전화 통보"에 대한 내용도 원본에 포함되어 있지 않습니다. 따라서 일부 사실이 왜곡되거나 추가된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하는 부분이 있지만, 추가된 정보로 인해 일관성이 떨어집니다. 특히, "충원합격자 1차 등록"과 "개별 전화 통보"는 원본에 없는 내용이므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 충원합격자 발표 일정에 대해 다루고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 추가된 정보가 원본과 관련이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일정에 대한 설명이 명확하게 이어집니다. 그러나 추가된 정보가 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 원본의 맥락과 일치하지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란스러울 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.914868883333666</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표는 다음과 같은 일정으로 이루어집니다:
+- 충원합격자 1차 발표: 2024년 2월 14일 (수) 09:00
+- 충원합격자 1차 등록: 2024년 2월 14일 (수) 09:00~16:00
+이후에도 추가로 충원합격자가 발표될 예정이며, 최종적으로는 3차 이후에 발표되며, 이때는 개별 전화 통보를 통해 안내가 이루어집니다. 
+따라서 충원합격자 발표 일정은 다음과 같습니다:
+- 2024년 2월 15일 (목) 09:00부터 3차까지의 충원합격자 발표
+- 2024년 2월 15일 (목) 19:00부터 3차 이후의 충원합격자 발표
+이 정보를 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않으며, 원본 텍스트에 명시된 충원합격자 발표 일정과 관련된 내용을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 구체적인 발표 일정을 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 정보인 발표 일정에 대한 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 적절성 때문에 전체적인 흐름이 다소 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용의 부적절성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3606301405345667</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표일에 대한 명시가 없습니다. 추가합격자 발표일은 일반적으로 모집단위별로 다를 수 있으며, 대학의 공식 웹사이트나 입학처에서 확인이 필요합니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집에 대한 정보를 제공하지 않고 있으며, 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본 텍스트는 추가 모집에 대한 명확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본의 내용을 부정확하게 해석하고 있습니다. 원본 텍스트는 추가 모집에 대한 내용을 명확히 설명하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보의 정확성이 떨어져서 관련성이 낮아 보입니다. 원본 텍스트의 핵심 내용을 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성이 떨어져서 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 원본의 내용을 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 해석을 바탕으로 하고 있습니다. 원본의 의도를 제대로 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4417513456269558</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 추가 모집에 대한 내용이 없습니다. 정원 내 모집 인원과 관련된 정보만 포함되어 있습니다. 추가 모집에 대한 자세한 정보가 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자를 대상으로 한 입학 전형에 대한 설명을 포함하고 있습니다. 지원 자격과 서류 평가에 대한 내용이 원본 텍스트와 일치하지 않으며, 모집 단위 및 인원에 대한 정보도 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 특히 지원 자격과 서류 평가 항목에서 원본 텍스트와 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 원본 텍스트와 관련이 적고, 주제에서 벗어난 부분이 많습니다. 그러나 일부 정보는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 전반적으로 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 각 항목이 독립적으로 나열되어 있어 연결성이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 서술되어 있으며, 특히 지원 자격과 서류 평가에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 포함하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 의미적으로 적절한 부분도 있지만, 전체적으로는 부적절한 정보가 많습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6166707972982639</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 전형입니다. 주요 특징과 절차를 설명드리겠습니다.
+1. 지원 자격:
+   - 국가 또는 지방자치단체 및 공공단체 소속 직원
+   - 근로기준법에 따른 상시근로자 5인 이상 사업체에서 근무한 사람 (사업주 포함)
+   - 4대 보험 중 하나 이상 가입된 사람 (창업자나 자영업자도 가능)
+   - 재직 경력이 3년 이상인 사람
+2. 모집 단위 및 인원:
+   - 미래융합대학 라이프융합학부: 신설 학과로 스타트업 창업투자학, 뷰티 비즈니스학, 라이프 생활문화학을 전공할 수 있습니다. 모집인원은 11명입니다.
+   - 미래융합대학 부동산자산경영학부: 모집인원은 정원 내외로 각각 7명과 17명입니다.
+3. 서류 평가:
+   - 학교생활기록부
+   - 검정고시 합격증서 (필요한 경우)
+   - 외국 고등학교 졸업 증명서 (필요한 경우)
+4. 면접 평가:
+   - 지원 동기 및 학업 계획 발표
+   - 고교 (직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력에 대해 이야기해 보세요
+   - 본인이 의미를 두고 노력했던 지원 전공 (계열)과 관련된 교내 (직장 내) 활동을 이야기해 보세요
+5. 평가 영역 및 배점:
+   - 공동체 역량: 140~98 점 사이에서 평가
+   - 학업 역량: 280~196 점 사이에서 평가
+   - 전공 적합성: 280~196 점 사이에서 평가
+이러한 절차와 기준을 통해 성인 학습자들이 자신의 경력을 바탕으로 대학에 입학할 수 있는 기회를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 고교 졸업(예정)자 또는 동등학력 소지자에 대한 지원 자격을 명시하고 있지만, 생성된 응답은 전혀 다른 조건을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 서로 상충하는 정보를 제공합니다. 원본의 지원 자격과 생성된 응답의 내용이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전혀 다른 지원 자격 조건을 제시하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 어느 정도 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.5925651185410704</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024학년도 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 국가·지방자치단체 및 공공단체 소속 직원이거나 상시근로자 5인(사업주 포함) 이상 사업체에서 근무하는 자
+2. 4대 보험 중 1개 이상 가입된 사업체의 근로자 (창업·자영업자 포함)
+3. 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)인 자
+또한, 지원 자격 증빙서류를 제출해야 합니다. 이는 근로계약서, 사업장 등에서 발급받은 서류 등을 포함합니다.
+위의 내용을 참고하시면 됩니다. 자세한 사항이나 추가적인 질문이 있으시다면 언제든지 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 구체적인 정보가 없다고 언급하고 있습니다. 이는 원본 텍스트의 내용을 반영하지 않으므로 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보와 안내를 제공하지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 다소 부족합니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와의 일치성이 낮고, 정보의 정확성도 부족하여 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4604732934797391</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2024학년도 모집에 대한 정보에서 실기고사와 관련된 구체적인 내용은 제공되지 않았습니다. 따라서 특정 단과대학이나 계열, 모집단위별로 실기고사를 치르는 장소에 대해 명시된 것은 없습니다.
+만약 특정 단과대학이나 계열의 경우, 일반적으로 실기고사는 해당 학교나 대학 내에서 치러지며, 일부 경우에는 교육 기관이나 관련 산업 현장에서 치러질 수 있습니다. 하지만 이 정보는 제공되지 않았습니다.
+더 자세한 정보를 얻으시려면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 공식 안내사항을 확인하시거나, 입학 사정관실에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트의 핵심 정보를 무시하고 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하고 있지만, 생성된 응답은 이를 언급하지 않고 일반적인 정보를 제공합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 구체적인 정보가 없다고 언급하고 있습니다. 이는 원본 텍스트의 내용을 반박하는 것으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 핵심 내용인 대기실 및 입실시간에 대한 정보와는 관련성이 떨어집니다. 따라서 적절한 관련성을 가지고 있다고 보기 어렵습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 중요한 정보를 누락하고 있습니다. 원본 텍스트의 날짜와 시간 정보가 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미적으로 완전히 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.4114194835618393</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 체육학과와 관련된 실기고사 장소에 대한 구체적인 내용이 없습니다. 일반적으로 실기고사는 해당 학과 또는 대학에서 이루어집니다. 더 자세한 정보를 얻으려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보시거나, 직접 대학 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실과 정반대의 내용을 담고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 포함되어 있어, 원본의 핵심 내용을 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본과의 내용 불일치로 인해 논리적인 흐름이 약해집니다. 전화 통보에 대한 잘못된 정보가 응답의 일관성을 해치고 있습니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다. 전화 통보가 이루어진다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 내용의 정확성 문제로 인해 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6640729050669181</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드립니다. 따라서, 충원 합격자 발표 이후에 전화로 연락이 오게 됩니다.
+만약 자세한 내용을 알고 싶으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요. 해당 사이트에서 최신 정보와 안내사항을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다. 두 텍스트 모두 수시모집 결과에 대한 정보가 없음을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시모집 결과에 대한 정보가 없다는 점을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8603764527974055</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 만약 더 자세한 정보를 원하신다면, 해당 대학의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도부터 정시모집에서 수능을 응시하지 않아도 지원이 가능하다고 주장하고 있지만, 이는 원문과 상반되는 정보입니다. 원문에서는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 정시모집과 관련된 정보를 제공하고 있지만, 원문에서의 질문에 대한 직접적인 답변이 아니므로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 관계가 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문과 사실적으로 상충하는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 전혀 일치하지 않으며, 문맥에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬운 구조로 되어 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5744660810845826</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도부터는 정시모집에서 수능을 응시하지 않아도 지원이 가능합니다. 예를 들어, "학생부종합(평생학습자전형)"과 같은 전형에서는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로만 지원할 수 있습니다. 하지만 특정 전형에서는 여전히 수능 점수가 필요할 수 있으므로, 정확한 자격 요건은 해당 대학의 공식 웹사이트를 참조하시거나, "https://ipsi.ipsi.ipsi.ipsi" 링크에서 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문 내용을 일부 반영하고 있지만, 정시 모집에 지원할 수 있는 기회가 줄어들 것이라는 주장은 원문과 상충합니다. 원문은 졸업 시기와 관계없이 지원 가능하다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 정시 지원이 가능하다고 명확히 언급하고 있으나, 생성된 응답은 기회가 줄어들 것이라고 주장하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조한 정시 지원 가능성에 대한 직접적인 답변이 부족합니다. 그러나 평생학습자나 성인학습자 전형에 대한 언급은 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 일관성이 떨어져서 전체적인 일관성은 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문과의 상충으로 인해 정확성 점수가 낮아졌습니다. 특히 정시 지원 가능성에 대한 정보가 잘못 해석되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원문과의 일관성 부족과 사실성 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미와 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5181665428847786</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024학년도에 정시모집군 변경 및 전형명 변경 등이 이루어졌습니다. 따라서, 고등학교를 졸업한지 10년이 지났다면 일반적으로 정시 모집에 지원할 수 있는 기회는 줄어들 것입니다.
+하지만, 특정 학과나 전형에서 특별히 평생학습자 또는 성인학습자를 대상으로 하는 전형이 신설되거나 변경되었을 수 있습니다. 예를 들어, "학생부종합(평생학습자전형)"이나 "학생부종합(성인학습자전형)" 등이 해당할 수 있습니다.
+따라서, 정확한 지원 가능 여부는 각 학과의 전형명 및 지원 자격을 확인해야 합니다. 제공된 정보를 바탕으로, "나군"에서 "학생부종합(평생학습자전형)", "학생부종합(성인학습자(정원내)전형)", "학생부종합(성인학습자(정원외)전형)" 등에 지원 가능 여부를 확인해 보시기 바랍니다.
+더 자세한 정보는 해당 대학의 입학처 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하시거나, 직접 학교에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7964883822572855</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 내용: 원서 접수는 인터넷을 통해 진행하며, http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com에서 접수 가능
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 내용: 서류 제출 대상은 전형별 세부 안내를 참조해야 하며, 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출 가능
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 확인 가능
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 확인 가능
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 발표 및 등록:
+     1. 2024년 2월 14일 (수) 9시 00분
+        - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+     2. 2024년 2월 15일 (목) 9시 00분 ~ 16시 00분
+        - 내용: 개별 전화 통보 시 안내, 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+     3. 이후 충원 합격자 발표 및 등록:
+        - 날짜: 2024년 2월 15일 (목) 19시 00분 ~ 2024년 2월 20일 (화) 18시까지
+          - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+이상이 동의대학교 정시 일정입니다. 자세한 정보는 입학안내 홈페이지를 참조하시거나 https://ipsi. deu. ac. kr/main. do로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.9004211473335674</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**
+   - 날짜: 2024년 1월 2일 (화)
+   - 공고 방법: 입학안내 홈페이지
+2. **원서접수(인터넷)**
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토), 오후 6시까지
+   - 접수 사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금), 오후 5시까지 도착
+   - 접수 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **실기고사**
+   - **레저스포츠학과, 태권도학과**
+     - 날짜: 2024년 1월 16일 (화)
+     - 대기실 및 입실시간 안내: 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 조회
+5. **디자인조형학과, 체육학과**
+   - 날짜: 2024년 1월 17일 (수)
+     - 대기실 및 입실시간 안내: 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**
+   - 최초 합격자 발표: 2024년 2월 2일 (금), 오후 2시
+     - 홈페이지에서 개별 조회 가능, 고지서 교부 방법은 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+7. **합격자 등록**
+   - 날짜: 2024년 2월 7일 (수) ~ 13일 (화), 오후 은행 마감 시간 내
+     - 홈페이지에서 개별 조회, 고지서 교부 방법은 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+8. **충원 합격자 발표 및 등록**
+   - 1차: 2024년 2월 14일 (수) 오전 9시
+     - 홈페이지에서 개별 조회, 고지서 교부 방법은 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+9. **충원 합격자 등록**
+   - 날짜: 2024년 2월 14일 (수) 오전 9시 ~ 오후 4시
+     - 홈페이지에서 개별 조회, 고지서 교부 방법은 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+10. **충원 합격자 발표 및 등록**
+    - 2차: 2024년 2월 15일 (목) 오전 9시
+      - 홈페이지에서 개별 조회, 고지서 교부 방법은 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+11. **충원 합격자 등록**
+    - 날짜: 2024년 2월 15일 (목) 오전 9시 ~ 오후 4시
+      - 홈페이지에서 개별 조회, 고지서 교부 방법은 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+12. **충원 합격자 발표 및 등록**
+    - 3차 이후: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+      - 홈페이지에서 개별 조회, 고지서 교부 방법은 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+이 일정을 참고하여 원서를 접수하고 필요한 서류를 제출하시면 됩니다. 자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 명확히 반영하지 않고 있습니다. 오히려 수능 미응시자도 지원이 가능하다는 잘못된 정보를 암시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 모집 전형에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보로 인해 관련성이 떨어집니다. 수능 미응시자의 지원 가능성에 대한 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약해집니다. 원본 텍스트와의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 잘못된 정보로 인해 전체적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 수능 미응시자의 지원 가능성에 대한 잘못된 해석이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7929137452027224</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교에서 수능 미응시자도 지원이 가능한 정시 모집 전형에 대한 명확한 내용을 찾지 못했습니다. 수능 미응시자의 지원 가능 여부와 관련된 자세한 사항은 공식 홈페이지를 참조하시거나, 대학 입학처에 직접 문의하시는 것이 가장 정확할 것입니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 동의대학교의 공식 웹사이트로 이동하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격 인원 수가 36명이라는 사실을 정확히 반영하고 있습니다. 그러나 전년도에 대한 정보가 제공되지 않았다는 점은 원문과 일치하지만, "충원 합격 (후보순위)" 항목에 대한 언급은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, "충원 합격 (후보순위)"라는 표현은 원문에 없으므로 일관성이 떨어집니다. 또한, 전년도에 대한 정보가 없다는 점을 강조하고 있지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 원문에서 언급된 주요 사항들을 잘 반영하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "충원 합격 (후보순위)"라는 부분이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전자공학과의 충원 합격 인원 수에 대한 정확한 정보를 제공하지만, 전년도에 대한 정보가 없다는 점에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 잘 부합하지만, "충원 합격 (후보순위)"라는 표현이 원문과의 의미적 일치를 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 어색할 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7758237644495648</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위에서 전자공학과의 경우, "충원 합격 (후보순위)" 항목을 확인해보니 충원 합격이 된 인원 수는 36명으로 기재되어 있습니다. 하지만 전년도에 대한 정보가 제공되지 않았기 때문에 전년도에 전자공학과에서 충원 합격이 이루어진 차수를 정확히 알려드리기는 어렵습니다. 더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 모순되는 정보를 제공하고 있습니다. 원본 텍스트에 명시된 전화번호를 부정하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 전화번호 정보를 무시하고 웹사이트를 방문하라는 제안을 하고 있지만, 원본 텍스트의 핵심 정보와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호가 포함되어 있다고 명시된 내용을 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 원본 텍스트의 맥락과 다소 어긋나 있으며, 전화번호를 확인하라는 요청이 원본의 내용을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6848180671936778</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 클릭하여 동의대학교 입학처 웹사이트를 방문하시고 전화번호를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격 사실이 확인된다고 주장하지만, 원문에서는 전화 연락이 두절되면 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 따라서 사실관계에 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 합격 사실이 확인된다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 전화 통화의 중요성을 간과하고 있습니다. 그러나 전체적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원문과의 연결이 부족하여 논리적 흐름이 다소 약합니다. 원문에서의 핵심 메시지와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 전화 통화가 되지 않는 경우의 처리에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 전반적으로 사실성, 일관성, 정확성에서 큰 문제를 보이고 있어, 다차원적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문과의 일치성이 떨어져 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5412127802440216</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격 사실이 확인됩니다. 그러나 이때는 홈페이지에서 개별 조회를 통해 합격 여부를 확인해야 하며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로 변경되며, 등록금 고지서에 기재된 정보를 참고하여 진행하면 됩니다.
+따라서 전화 통화가 되지 않더라도, 다음 절차들을 따르면 합격자로 인정받을 수 있습니다:
+1. 홈페이지에서 개별 조회
+2. 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령
+3. 등록장소는 학교 지정은행으로 변경
+이러한 절차를 통해 합격 사실을 확인하고, 등록금 납부 등을 진행하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 제출해야 할 서류의 일부를 정확하게 나열하고 있지만, 원본 텍스트에 포함된 특정 조건(부모 사망 시 제출 서류, 부모 이혼 시 제출 서류 등)과 같은 중요한 세부사항이 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 전체적으로 일관성이 부족합니다. 특히, 추가 서류에 대한 언급이 원본 텍스트의 세부사항과 일치하지 않으며, 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 제출해야 할 서류에 대한 정보를 제공하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 세부사항의 누락으로 인해 완전한 일관성은 부족하므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 양호한 품질을 가지고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서의 부족함으로 인해 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부사항의 누락으로 인해 완전한 적합성은 부족하므로 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.6948724937114618</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다르지만, 일반적으로 다음과 같은 서류가 필요합니다.
+### 6년 과정
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본 각 1부** (총 3부)
+3. **중학교 학교생활기록부** (1부)
+4. **고등학교 학교생활기록부** (1부)
+### 12년 과정
+1. **지원자 본인의 주민등록초본** (1부)
+2. **초등학교 학교생활기록부** (1부)
+3. **중학교 학교생활기록부** (1부)
+4. **고등학교 학교생활기록부** (1부)
+### 추가 서류
+- **고교 졸업증명서**
+- **지원자 본인, 부모의 초본 각 1부** (총 3부 또는 2부)
+이 외에도 특정 유형에 따라 추가적인 서류가 필요할 수 있으므로, 정확한 요구사항은 해당 대학의 공식 웹사이트를 확인하거나 문의하는 것이 좋습니다. 
+[대입 정보 사이트](https://ipsi.deu.ac.kr/main.do)에서 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 추가로 제출해야 하는 서류에 대한 언급이 없고, 주민등록초본의 발급 조건에 대한 설명이 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 서류 목록과 일치하지만, 추가 서류에 대한 언급이 없고, 주민등록초본의 발급 조건에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록과 발급 방법에 대한 설명이 잘 연결되어 있습니다. 그러나 추가 서류에 대한 언급이 없어서 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 전달하고 있지만, 추가 서류와 관련된 정보가 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 필요한 정보를 적절하게 전달하고 있습니다. 다만, 추가 서류에 대한 언급이 없어서 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.7991891496998852</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정으로 지원 시 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 언급하지 않고, "현재의 데이터로는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는다는 결론을 내릴 수 없다"고 하여 다소 모호한 표현을 사용하고 있습니다. 그러나 전반적으로는 사실에 근거하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분도 있지만, "결론을 내릴 수 없다"는 표현은 원문에서 명확히 기회균등 전형이 존재하지 않는다고 언급한 것과 일치하지 않습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 저소득 기회균등 전형에 대한 정보를 요청하는 질문에 적절하게 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에서는"이라는 시작 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원문과의 연결이 다소 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 기반하고 있으며, 기회균등 전형이 존재하지 않는다는 사실을 반영하고 있습니다. 그러나 결론을 내릴 수 없다는 표현이 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, "결론을 내릴 수 없다"는 표현이 원문의 명확한 사실과 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6174253699529455</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서의 저소득 기회균등 전형에 대한 내용이 포함되어 있지 않습니다. 따라서, 현재의 데이터로는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는다는 결론을 내릴 수 없습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 최신의 입학 정책과 전형 방법에 대해 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 2.5 등급이 나오면 그대로 2.5 등급으로 처리한다고 주장하고 있습니다. 이는 원문에서 명시된 정보와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사하지 않는다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원문에서 제공된 정보와는 다소 차이가 있습니다. 그러나 질문에 대한 답변을 시도하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 일관성이 떨어져서 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문에서의 정보와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서의 정보가 무시되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일관성이 부족하고, 사실성 및 정확성이 떨어지므로 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 불일치로 인해 전체적인 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.5806886791887965</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 그대로 2.5 등급으로 처리합니다. 절사(절단)은 하지 않고, 실제 계산된 평균 등급을 그대로 사용합니다.
+예를 들어, 사탐 2 과목의 등급이 각각 2등급과 3등급이라면, 이들의 평균은 (2 + 3) / 2 = 2.5가 됩니다. 이 경우에도 2.5 등급으로 처리합니다.
+따라서, 실제 수능 점수와 등급을 기반으로 사탐 2 과목의 평균 등급을 계산한 결과가 2.5라면 그대로 2.5 등급으로 보는 것이 맞습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 3차까지 있다는 사실을 정확하게 반영하고 있으며, 각 발표 날짜도 올바르게 언급하고 있습니다. 그러나 "총 3차로 이루어집니다"라는 표현은 약간의 오해를 불러일으킬 수 있습니다. 3차 이후 발표가 개별 전화 통보로 진행된다는 점이 명확히 언급되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 일정과 방식에 대한 정보가 일치합니다. 다만, "총 3차로 이루어집니다"라는 표현이 3차 이후 발표에 대한 정보를 포함하지 않아 약간의 불일치를 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 3차 이후 발표에 대한 정보가 명확히 언급되지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 약간의 정확성 부족이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 3차 이후 발표에 대한 정보가 부족하여 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.83841394299224</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표는 2024년 2월 14일(수)에 있습니다.
+2차 발표는 같은 날인 2024년 2월 15일(목)에 있습니다.
+3차 이후 발표는 개별 전화 통보를 통해 이루어집니다.
+따라서 정시 충원 합격자 발표는 총 3차로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형 수능 최저 기준 점수에 대한 정보를 제공하지 않는다고 주장하지만, 원본 텍스트에서는 수능 4개 영역 등급이 4.6점일 경우 최초 합격자와 최종 등록자의 평균을 초과하는 점수라는 정보를 제공하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 수능 최저 기준에 대한 언급이 없다는 점에서 일관성이 부족합니다. 원본 텍스트는 4.6점이 평균을 초과하는 경우 추가 합격 가능성을 언급하고 있으나, 생성된 응답은 이를 무시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형 수능 최저 기준에 대한 정보를 요청하는 질문에 대한 답변으로 보이지만, 원본 텍스트의 주요 내용과는 다소 관련성이 떨어집니다. 원본 텍스트의 정보가 충분히 활용되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 정보와 연결되지 않아 일관된 주제를 유지하지 못하고 있습니다. 원본 텍스트의 내용을 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 수능 최저 기준에 대한 정보가 없다는 주장은 사실과 다릅니다. 원본 텍스트는 4.6점이 평균을 초과하는 경우 추가 합격 가능성을 언급하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 전반적으로 원본 텍스트와의 연관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 원본 텍스트의 내용을 반영하지 않기 때문에 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5823959037174392</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터로는 e비즈니스학과의 정시 전형 수능 최저 기준 점수를 확인할 수 없습니다. 현재 데이터에는 e비즈니스학과와 관련된 정보가 포함되어 있지 않습니다.
+만약 e비즈니스학과의 정시 전형 수능 최저 기준이 4.6 이상이라면, 해당 점수가 충족되면 추가 합격 가능할 것입니다. 반대로 만약 수능 최저 기준이 더 높다면, 4.6점으로는 추가 합격이 불가능할 수 있습니다.
+더 정확한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 e비즈니스학과의 정시 전형 수능 최저 기준 점수를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 평균 영어 등급이 3.66에서 4.08로 변경된 점은 부정확합니다. 또한, 정시 등급 5.3에 대한 합격 가능성에 대한 판단이 다소 모호하게 표현되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 영어 등급의 차이로 인해 일관성이 떨어집니다. 또한, 합격 가능성에 대한 결론이 원본 텍스트와 다르게 제시되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, e비즈니스학과의 합격 가능성에 대한 분석을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어져서 완전한 일관성을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 영어 등급의 변화와 관련된 정보가 부정확하여 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보의 변경으로 인해 의미 전달이 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7084238336815679</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과의 수능 성적 분석을 통해 최초합격 가능성에 대해 판단해보겠습니다.
+e비즈니스학과는 "나군(일반학생전형)"으로 모집되며, 해당 전형의 수능 전형성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+주어진 정시 등급 5.3에 따른 점수는 다음과 같습니다:
+- 등급 5: 107 (https://ipsi.deu.ac.kr/main.do 참고)
+따라서, 정시 등급 5.3의 경우 영어 점수가 107점이 됩니다.
+2024학년도 e비즈니스학과의 평균 및 표준 편차를 확인해보겠습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 395.63, 표준 편차 12.03
+- 영어 등급: 평균 4.08, 표준 편차 0.86
+주어진 정보로는 e비즈니스학과의 정확한 경쟁률이나 지원 인원 등의 데이터가 없으므로, 일반적인 분석을 진행하겠습니다.
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균 395.63**에 영어 점수가 추가되면, 전체 점수는 상대적으로 높아집니다.
+2. **영어 등급 평균 4.08**보다 주어진 정시 등급 5.3이 높으므로, 이 부분에서 경쟁력은 높습니다.
+따라서, 주어진 정보만으로 판단하면 e비즈니스학과의 최초합격 가능성은 상대적으로 높다고 볼 수 있습니다. 하지만 정확한 최초합격 가능성을 확정하기 위해서는 해당 학과의 지원 인원 및 경쟁률 등의 데이터가 필요합니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문해보시거나, 동의대학교 입학처에 문의하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고, 전형별로 다르게 평가된다는 점을 강조하고 있습니다. 그러나 원본 텍스트에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 사실을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 예비 38번의 합격 가능성에 대한 모호한 설명을 제공합니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격 여부에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 핵심 정보와는 거리가 있습니다. 전형별 평가 요소에 대한 설명은 관련성이 있지만, 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 각 요소 간의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 명확한 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5631671631622902</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 이정도의 성적이나 실적은 전형별로 다르게 평가되기 때문입니다.
+나군 경기실적우수자전형에서는 다음과 같은 요소들이 고려됩니다:
+1. 학생부교과 및 출결
+2. 서류(경기실적) 
+3. 동점자 처리 기준
+또한, 나군 농어촌학생전형에서는 다음과 같은 요소가 고려됩니다:
+1. 학생부교과
+2. 정원외 지원 자격
+3. 동점자 처리 기준
+따라서, e비즈니스학 전공에 대한 예비합격 가능성은 해당 전형의 평균 점수와 비교하여 판단해야 합니다.
+추가적인 정보를 제공해 주시면 더 구체적으로 답변 드릴 수 있습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 2.34이고 수능 4개 영역 등급 평균이 3.37이라고 명시되어 있지만, 생성된 응답에서는 영어 등급 평균이 3.88, 수능 4개 영역 등급 평균이 4.65로 잘못 기재되어 있습니다. 이러한 오류로 인해 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 3.44의 성적이 간호학과에 합격하기 어려울 수 있다고 언급하고 있지만, 생성된 응답에서는 경쟁률이 낮아 합격 가능성이 높다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 일부 내용이 부적절하게 연결되어 있습니다. 그러나 전반적으로 간호학과에 대한 정보와 합격 가능성에 대한 논의는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기 쉽습니다. 문장 구조와 표현이 자연스럽고 명확합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일부 부분에서 일관성이 떨어집니다. 특히, 성적에 대한 해석이 원본과 상충하여 논리적 일관성이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 특히, 평균 성적에 대한 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 부정확합니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6521399307560058</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 최초합격자 성적 평균을 살펴보겠습니다.
+간호학과는 인문사회과학대학의 모집단위 중 하나입니다. 해당 학과의 성적 데이터를 확인해보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 303.44
+- 영어 등급 평균: 3.88
+- 수능 4개 영역 등급 평균: 4.65
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 419.33
+당신의 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 3.44입니다. 이는 평균보다 상대적으로 낮습니다.
+하지만, 동의대학교 간호학과의 경쟁률은 1.63으로 매우 낮습니다. 따라서 성적이 조금 낮더라도 합격 가능성은 높을 수 있습니다. 
+추가적인 정보:
+- 영어 등급 평균이 3.88이고, 당신의 영어 등급이 더 좋다면 이점도 있을 수 있습니다.
+- 경쟁률이 낮아서 성적이 조금 부족해도 합격 가능성은 높습니다.
+결론적으로, 성적만으로는 확실한 판단을 내리기 어렵지만, 동의대학교 간호학과에 지원하여 합격할 가능성이 있습니다. 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 합격 가능성을 판단하기 위해 추가적인 데이터가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 정보에 따르면 2.52의 성적은 평균 등급보다 높아 합격 가능성이 높다고 명시되어 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 정시 등급이 2.52일 때 합격 가능성이 높다는 원본의 주장을 반박하고 있습니다. 이는 일관성이 부족한 것으로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원본 텍스트와의 관계에서 일관성이 떨어져 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 2.52의 성적이 합격 가능성이 높다는 점을 간과하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 주장을 반박하는 내용이 포함되어 있어 의미적으로 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어졌습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6563708312939781</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 간호학과의 정시 합격 가능성을 판단하기 어렵습니다. 간호학과의 모집인원, 지원 인원, 경쟁률 등 자세한 데이터가 필요합니다.
+특히, 간호학과의 경우 일반적으로 높은 경쟁률을 보이기 때문에, 성적이 2.52일 때 최종 합격 가능성은 매우 낮다고 추정할 수 있습니다. 하지만 정확한 판단을 위해서는 동의대학교 간호학과의 2024년도 모집 인원, 지원 인원, 경쟁률 등의 정보가 필요합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 잘 반영하고 있으며, 3.7의 정시 성적이 낮은 성적이라는 점을 언급하고 있습니다. 그러나, "합격 가능성이 낮다"는 표현은 다소 주관적일 수 있으며, 구체적인 수치나 기준이 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 합격 가능성에 대한 논의가 원본의 내용과 잘 연결되어 있습니다. 다만, 추가적인 요소를 고려해야 한다는 점에서 약간의 일관성 부족이 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나, 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 합격 가능성에 대한 구체적인 수치나 기준이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 보여줍니다. 그러나 몇 가지 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6265913653696376</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 보통 높은 정시 성적을 요구하며, 특히 경쟁률이 높습니다.
+하지만 정확한 합격 가능성을 판단하려면 다음과 같은 요소들을 고려해야 합니다:
+1. **정시 모집군**: 간호학과가 어느 정시 모집군에 속하는지 확인해야 합니다.
+2. **모집인원 및 경쟁률**: 해당 모집군의 모집인원과 지원자의 수를 파악하여 경쟁률을 계산합니다.
+3. **전형별 합격기준**: 간호학과가 어떤 전형으로 모집되는지, 각 전형의 합격 기준을 확인해야 합니다.
+예를 들어, 정시 모집군이 '나군'이고, 나군에서 간호학과가 수능(일반학생전형)으로 모집된다면:
+- **수능(일반학생전형)**: 이 경우 수능 점수가 합격 기준에 큰 영향을 미칩니다. 3.7의 정시 성적만으로는 낮은 수능 점수를 요구하는 전형에서도 합격하기 어렵습니다.
+- **실기/실적(일반학생전형)**: 이 경우 실기와 실적, 그리고 학생부 교과성적이 중요한 요소가 됩니다. 정시 성적이 3.7이라면, 실기와 실적, 학생부 교과성적 등이 높아야 합니다.
+- **학생부종합**: 이 경우 학생부 교과성적, 진로선택과목 성적, 그리고 면접 등의 요소가 중요합니다. 정시 성적이 3.7이라면, 다른 요소들이 매우 뛰어나야 합격할 수 있습니다.
+따라서, 정확한 답변을 위해서는 간호학과의 모집군, 모집인원, 경쟁률, 그리고 해당 전형의 합격 기준 등을 확인해야 합니다. 필요하다면, 대학 입학처에 직접 문의하거나, 관련 정보를 찾아보시기 바랍니다.
+더 자세한 정보가 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있으며, 정시 등급이 2.58인 경우 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 영어 성적을 4등급으로 해석하는 부분에서 약간의 혼동이 있을 수 있습니다. 
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 영어 성적을 4등급으로 해석하는 과정에서 원본 텍스트의 평균 등급과의 관계가 명확하지 않습니다. 따라서 일관성이 다소 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 정시 모집에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 성적 산출 방법에 대한 설명도 정확합니다. 그러나 간호학과의 최종 합격 기준 점수에 대한 정보가 부족하여 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 세부 사항에서 약간의 혼동이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 정보가 과도하게 복잡하게 제시될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6974367727162163</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집 정보를 바탕으로 답변 드리겠습니다.
+간호학과는 일반학생전형(가군)으로 모집되며, 해당 전형의 수능 성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+영어 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139
+- 2등급: 131
+- 3등급: 123
+- 4등급: 115
+- 5등급: 107
+- 6등급: 99
+- 7등급: 91
+- 8등급: 83
+- 9등급: 75
+제시된 영어 성적인 2.58은 4등급에 해당합니다.
+영어 4등급의 점수는 115점입니다.
+따라서, 국어 + 수학 + 탐구 + 영어(115)의 합산 점수가 합격 가능 여부를 결정하게 됩니다. 하지만 간호학과의 정시 모집에 대한 최종 합격 기준 점수는 공개되지 않았습니다.
+따라서, 현재 정보로는 정확한 답변을 드리기 어렵습니다. 동의대학교의 2024년 정시 모집 성적 기준 점수를 확인하시거나, 대학 입학처에 직접 문의하시는 것이 가장 정확한 결과를 얻는 방법입니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 정보가 부족하며, 원본 텍스트에서 제공된 충원합격 정보와 일치하지 않습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 정원 내 모집 인원과 지원자의 수에 대한 확인을 요구하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보와 일치하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 반대의 내용을 암시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 충원합격 정보와는 다소 거리가 있습니다. 그러나 지원자의 수와 정원 내 모집 인원에 대한 언급은 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 예비 7번의 합격 가능성에 대한 명확한 결론이 부족하여 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있으며, 예비 7번의 합격 가능성에 대한 정보가 부정확합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 관련성이 있지만, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석될 수 있는 부분이 있으며, 예비 7번의 합격 가능성에 대한 명확한 정보가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5968887952723788</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생님이 게임공학과에 지원하시려면 정원 내 모집 인원과 지원자의 수가 어떻게 되는지 확인이 필요합니다. 현재 제공된 정보에서는 게임공학과의 정원 내 모집 인원을 찾을 수 없습니다.
+게임공학과의 정원 내 모집 인원을 확인한 후, 지원자의 수와 비교하여 결정해야 합니다. 만약 정원 내 모집 인원보다 지원자가 적다면 붙을 가능성이 높습니다. 반대로 지원자가 많다면 경쟁이 치열해질 수 있습니다.
+더 자세한 정보를 얻기 위해서는 다음과 같은 방법을 추천드립니다:
+1. **입학사정관에게 문의하기**: 본교 입학사정관이나 학과 담당 교수에게 직접 문의하여 정확한 정보를 얻으세요.
+2. **학교 홈페이지 확인**: 학교 홈페이지의 입학 안내 섹션을 확인해 보세요. 종종 모집 인원과 지원자의 수가 공개되어 있습니다.
+만약 추가로 필요한 정보나 도움이 필요하시다면 언제든지 문의해 주세요!</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 게임공학과의 평균 수능 4개 영역 등급을 4.87로 잘못 언급하고 있으며, 이는 원본 텍스트의 4.78과 다릅니다. 또한, 4.16이라는 점수가 "상당히 낮은 수준"이라고 표현했지만, 원본 텍스트에서는 4.16이 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이러한 사실의 왜곡으로 인해 점수를 낮게 평가합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 4.16이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 이를 낮은 수준으로 간주하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 지원 가능성에 대한 논의가 포함되어 있습니다. 그러나 일부 정보는 원본 텍스트와의 일관성이 떨어져서 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 수치와 정보가 원본 텍스트와 일치하지 않으며, 잘못된 사실을 포함하고 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 신뢰할 수 있는 정보로 평가하기 어렵습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트와의 불일치로 인해 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7598751178697448</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급 점수를 가지고 동의대학교 게임공학과에 지원한다면, 현재 제공된 데이터로는 확정적으로 추가 합격이 가능한지 판단하기 어렵습니다. 게임공학과의 경우 평균 수능 4개 영역 등급은 4.87으로, 표준 편차가 0.17이라는 정보를 보면, 4.16이라는 점수는 상당히 낮은 수준입니다.
+게임공학과의 경우 모집 인원이 3명이고 지원 인원이 16명인 것을 볼 때 경쟁률이 높습니다. 평균 수능 등급이 비교적 높기 때문에, 4.16이라는 점수로는 추가 합격이 어려울 것으로 보입니다.
+하지만, 정확한 결과를 얻으려면 동의대학교 게임공학과의 최종 합격자 명단을 확인하거나, 해당 대학에 직접 문의하는 것이 가장 확실합니다. 또한, 다른 전형이나 단과대학에서 지원해보는 것도 좋은 방법일 수 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 링크로 접속하여 공식 홈페이지에서 최신 정보를 확인하시거나, 대학에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 최저 등급에 대한 정보를 제공하지 않으며, 대신 일반적인 절차와 요소들을 설명하고 있습니다. 그러나 원본 텍스트에서 제공된 정보와는 다소 다르게 해석될 수 있는 부분이 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 경영정보학과의 최저 등급에 대한 명확한 답변을 제공하지 않기 때문에 일관성이 떨어진다고 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 최저 등급을 확인하는 방법에 대한 정보를 제공하고 있어 관련성이 높지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있어 유창성이 높습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 최저 등급에 대한 정확한 정보를 제공하지 않으며, 일반적인 절차를 설명하고 있어 정확성이 떨어진다고 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 질문에 대한 명확한 답변이 부족하여 전반적인 품질이 떨어진다고 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으나, 질문에 대한 직접적인 답변이 부족하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7587094559124437</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 최저 등급을 확인하기 어렵습니다. 경영정보학과의 최저 등급은 대학 홈페이지나 입학처에서 확인해야 합니다.
+하지만 일반적으로 수능 성적을 기준으로 합격 여부를 판단할 때, 다음과 같은 절차와 요소들을 고려해야 합니다:
+1. **수능 성적**: 국어, 수학(선/후), 영어 등급, 탐구 과목의 성적을 반영합니다.
+2. **최저 등급**: 대학이 정한 최저 등급 기준을 확인해야 합니다.
+3. **경쟁률**: 해당 학과의 경쟁률을 고려해야 합니다.
+만약 경영정보학과의 최저 등급 기준이 3.75 이상이라면, 최초등록자로 가능할 수 있습니다. 하지만 정확한 정보를 얻기 위해서는 대학 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성을 판단하기 어렵다고 언급하고 있지만, 원문에서는 4.2의 성적이 평균보다 낮아 합격 가능성이 낮다고 명확히 설명하고 있습니다. 따라서, 응답이 원문과 일치하지 않는 부분이 있어 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부 일치하지만, 합격 가능성에 대한 결론이 상반되어 일관성이 부족합니다. 원문은 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 판단이 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 추가 정보를 제공하고 있으며, 관련된 요소들을 언급하고 있습니다. 그러나 원문에서 제시된 핵심 정보에 대한 직접적인 언급이 부족하여 점수를 다소 낮게 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원문과의 연결성이 약해져서 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 일부 일치하지만, 합격 가능성에 대한 결론이 다르게 제시되어 정확성이 떨어집니다. 따라서 점수를 3으로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 불일치로 인해 전반적인 품질이 떨어져 점수를 3으로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락과 관련된 내용을 다루고 있으며, 의미적으로 적절합니다. 그러나 원문과의 차이로 인해 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 다만, 일부 문장이 길어질 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6142911986644324</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격을 위해서는 수능 점수, 학생부 성적 등 여러 요소가 고려됩니다.
+특히, 학생부 종합전형(나군)에서는 학생부 성적이 중요한 평가 기준 중 하나입니다. 제공된 학생부 성적 4.2는 좋은 점수이지만, 경영정보학과의 특성에 맞는 활동이나 경험을 보여주어야 합니다.
+추가적으로 확인해야 할 사항들:
+1. **경쟁률**: 경영정보학과의 정시 모집 인원과 지원 인원, 경쟁률 등을 확인해보세요.
+2. **학생부 성적 평균**: 해당 학교에서 발표한 나군 학생부 종합전형의 평균 학생부 성적을 참고하세요.
+3. **활동 및 경험**: 지원동기와 관련된 활동, 경험 등을 잘 기재하고 있어야 합니다.
+더 자세한 정보를 얻으시려면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 정시 성적 기준에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차를 안내하고 있습니다. 원본 텍스트에서 제시된 평균 등급(영어 3.25, 수능 4.31)과 현재 정시 등급(5.33)과의 비교가 누락되어 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 경영정보학과의 평균 등급에 대한 언급이 없고, 대신 일반적인 절차를 설명하고 있습니다. 따라서 일관성 점수가 중간 정도입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 정시 성적 기준을 확인하는 방법에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교하는 내용이 부족하여 점수가 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 단계별로 정보를 제공하고 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 비교하지 않고 일반적인 절차를 설명하고 있어 정확성 점수가 낮습니다. 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 관련성과 유창성은 상대적으로 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 동의대학교 경영정보학과에 대한 정보를 찾는 데 도움이 되는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 지침을 제공합니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6848609049831116</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과에 대한 정시 성적 기준을 확인하기 위해서는 해당 전형의 수능 점수 평균 및 표준 편차를 알아야 합니다. 제공된 정보 중에서 경영정보학과와 관련된 데이터가 명확히 주어지지 않았습니다.
+하지만, 일반적으로 동의대학교의 정시 합격 기준을 확인하기 위해서는 다음과 같은 단계를 따르실 수 있습니다:
+1. **동의대학교 홈페이지**를 방문하여 "입학 정보" 또는 "전형 안내" 섹션에서 해당 전형의 자세한 내용을 확인합니다.
+2. **수능 성적 평균 및 표준 편차**를 찾아보세요. 이는 동의대학교 홈페이지나 입시 관련 포털에서 제공될 수 있습니다.
+만약, 현재 정보로는 정확한 기준을 알 수 없다면, 동의대학교의 공식 웹사이트를 방문하여 최신 정보를 확인하시거나, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 내용을 찾아보시기 바랍니다.
+이러한 절차를 통해 정확한 합격 가능성을 판단하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 주어진 성적 3.33이 영어 등급 4로 변환된 점수에 대한 설명이 다소 부정확합니다. 원본 텍스트에서 제시된 정보와 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있으나, 성적 변환 및 최초합격자 성적에 대한 설명에서 일관성이 부족합니다. 특히, 주어진 성적이 평균보다 낮다는 점에서 원본 텍스트의 긍정적인 합격 가능성과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 최초합격 기준과 관련된 정보를 제공하고 있으며, 질문의 맥락에 잘 맞춰져 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족하여 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 성적 변환 및 평균 성적에 대한 설명에서 부정확한 부분이 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.8079451162637743</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 최초합격 기준 점수를 확인해보겠습니다.
+바이오응용공학부는 "나군(일반학생전형)"에 해당하며, 성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+주신 성적 3.33은 영어 등급 점수로 변환하면 다음과 같습니다:
+- 영어 등급 4 / 점수 123 (영어 등급 4의 점수)
+이를 기반으로, 바이오응용공학부 최초합격자들의 성적을 참고하겠습니다.
+바이오응용공학부의 2024년도 최초합격자 성적은 다음과 같습니다:
+- 영어 등급: 평균 4.60 / 표준 편차 0.80
+주신 성적 3.33 (영어 등급 4)는 평균보다 약간 낮습니다. 하지만, 최초합격자들의 점수 분포를 고려하면, 주신 성적이 최초합격에 포함될 수 있습니다.
+결론적으로, 주신 성적 3.33 (영어 등급 4)는 바이오응용공학부의 최초합격 기준을 충족할 가능성이 있지만, 확실한 것은 해당 학과의 정확한 최저 점수를 확인하는 것입니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 포함하고 있지만, 정시 등급이 4.4일 경우의 합격 가능성에 대한 명확한 언급이 부족합니다. 또한, 영어 등급점수에 대한 계산이 다소 불확실하게 제시되어 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 전형에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급과의 일관성이 부족합니다. 특히, 정시 등급이 4.4일 경우의 합격 가능성에 대한 언급이 원본과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 필요한 정보와 전형에 대한 설명을 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 전형에 대한 설명이 잘 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어져서 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 전형에 대한 정보를 제공하지만, 정시 등급이 4.4일 경우의 합격 가능성에 대한 정확한 판단이 부족합니다. 또한, 영어 등급점수 계산에 대한 정보가 명확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 일치성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6116809612110947</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과를 지원하려면, 전형별로 다음과 같은 점수와 성적을 고려해야 합니다. 주어진 정보만으로는 정확한 판단이 어렵지만, 일반적으로 방사선학과의 모집단위는 공과대학이나 의료·보건·생활대학에 속합니다.
+1. **가군(일반학생전형)**:
+   - 수능 전형성적 산출방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점 (수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+   - 예를 들어, 정시 등급이 4.4라면, 영어 등급점수가 약 123점 정도 됩니다.
+2. **나군(일반학생전형)**:
+   - 수능 전형성적 산출방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+   - 예를 들어, 정시 등급이 4.4라면, 영어 등급점수가 약 123점 정도 됩니다.
+방사선학과의 경우, 주로 공과대학에서 모집되므로 **가군(일반학생전형)**을 추천드립니다. 이 전형에서는 수학 성적이 중요하므로, 수학 성적을 잘 유지해야 합니다.
+**추천 전형: 가군(일반학생전형)**
+- 국어, 수학, 영어 등급점수를 잘 준비하고,
+- 탐구 과목 중 방사선 관련 과목이 있는지 확인하여 선택하면 좋습니다.
+만약 정확한 성적과 모집단위에 대한 정보가 필요하다면, **https://ipsi. deu. ac. kr/main. do** 웹사이트를 참조하시거나, 동의대학교 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 무시하고 있으며, 제공된 데이터가 방사선학과와 직접 관련이 없다고 주장하고 있습니다. 이는 사실과 다르며, 원본 텍스트의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 방사선학과의 평균 등급에 대한 언급을 무시하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 데이터에 대한 해석이 잘못되어 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성에 문제가 있어 전반적인 흐름이 약간 손상되었습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 정보와 일치하지 않기 때문에 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과의 평균 등급에 대한 정보를 잘못 해석하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 제공된 데이터에 대한 해석이 부적절하여 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5996202306514526</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터는 방사선학과와 직접 관련이 없어, 정확한 판단을 내리기 어렵습니다. 방사선학과의 입학 경쟁률이나 합격 점수에 대한 정보가 필요합니다. 만약 해당 정보를 찾고자 한다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다. 그곳에서 방사선학과의 관련 통계를 확인하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 농어촌 전형에 대한 구체적인 정보가 부족합니다. 또한, 정시 성적 외의 다른 평가 기준에 대한 언급이 있지만, 이는 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 농어촌 전형에 대한 구체적인 내용이 부족하여 일관성이 떨어집니다. 원본 텍스트에서 제시된 긍정적인 요소에 대한 언급이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보와 조언을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용에 대한 직접적인 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 농어촌 전형에 대한 구체적인 세부 사항이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 특정 세부 사항이 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 조언을 제공합니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.526290200736566</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 정시 성적을 가지고 경찰행정학전공의 농어촌 전형에 지원하시려는 의도를 이해합니다. 하지만 현재 제공된 정보만으로는 정확한 답변이 어렵습니다. 이유는 다음과 같습니다:
+1. **모집인원과 지원자 수**: 각 단과대학 및 모집단위별로 정원 내 모집 인원과 지원자의 수가 다르므로, 정시 성적만으로 합격 확률을 판단하기 어려워요.
+2. **전형 요소 반영 비율**: 농어촌 전형은 주로 지역 특성 등을 고려하므로, 정시 성적이 중요한 요인일 수 있지만, 다른 평가 기준(학업역량, 공동체 역량 등)도 중요하게 작용할 수 있습니다.
+3. **전형별 세부 평가 기준**: 학생부종합 전형의 경우 서류평가와 면접평가를 통해 지원자의 전반적인 능력을 종합적으로 판단하므로, 정시 성적 외에도 다른 요소들이 중요하게 작용할 수 있습니다.
+추천되는 조치는 다음과 같습니다:
+1. **입학사정관과 상담**: 본교 입학사정관이나 관련 부서와 상담을 통해 전형별 세부 평가 기준 및 지원 가능성을 확인해보세요.
+2. **전형 요소 반영 비율 확인**: 제공된 정보에서 각 전형의 전형요소 반영 비율을 확인하여, 정시 성적 외에도 어떤 요소들이 중요한지 파악하세요.
+3. **서류 준비 및 면접 대비**: 서류평가와 면접평가를 위한 준비를 철저히 하세요.
+더 자세한 정보나 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 입학처에 문의해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 합격자의 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 예비 합격자의 가능성에 대한 설명이 원문에서 제공된 특정 학과 목록과 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 합격자의 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원문에서 제시된 특정 학과에 대한 정보가 부족하여 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 예비 합격자의 가능성에 미치는 영향을 설명하고 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 합격자의 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제공된 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 유창성과 관련성에서 높은 점수를 받지만, 사실성과 일관성에서 부족함이 있어 전체적인 품질 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 원문에서 제공된 특정 정보가 부족하여 완전한 적절성을 갖추지 못합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4953827591748697</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자 중에서 실제로 충원되는 합격자는 상당히 제한적입니다. 하지만 아직 최종합격자가 결정되지 않았기 때문에, 작은 가능성은 있습니다. 경쟁률이 매우 높고, 대부분의 경우 예비 합격자들 중에서 일부만 최종적으로 합격하게 됩니다.
+예비 합격자로서의 가능성은 다음과 같은 요인에 따라 달라질 수 있습니다:
+1. **수능 성적**: 평균적인 수능 성적이 높다면, 충원 가능성이 조금 더 높아집니다.
+2. **학생부 내용**: 학생부에서 보여주는 활동과 성취가 우수하다면, 이점이 반영되어 충원될 확률을 높일 수 있습니다.
+3. **면접 성적 (만약 면접이 필요하다면)**: 면접에서도 좋은 성적이 나온다면, 이 점도 큰 도움이 될 것입니다.
+결론적으로, 아직 최종 합격자가 결정되지 않았기 때문에 작은 가능성은 있지만, 확실한 것은 아닙니다. 최선을 다해 준비하고, 가능한 모든 정보를 활용하여 자신의 입학 가능성을 높이는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부의 존재를 부정하며, 해당 학부에 대한 정보가 없다고 언급하고 있습니다. 그러나 원본 텍스트에서는 법경찰행정학부가 존재하지 않음을 명확히 하고 있으며, 경찰행정학과에 대한 평균 성적 정보를 제공하고 있습니다. 따라서 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 이로 인해 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 경찰행정학과의 성적 정보를 제공하고 있지만, 생성된 응답은 법경찰행정학부에 대한 정보가 없다고 하여 원본의 내용을 무시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 입학 기준에 대한 일반적인 정보를 제공하고 있지만, 원본 텍스트에서 요구하는 특정한 성적 정보와는 관련성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 완벽한 유창성은 아닙니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트의 주제와 연결되지 않아 논리적인 흐름이 약간 부족합니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 법경찰행정학부에 대한 정보가 없다고 주장하는 것은 사실과 다릅니다. 이로 인해 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 내용이 원본과 연결되지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.6667830235615624</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 법경찰행정학부의 정시 합격 평균 점수를 정확히 알기 어렵습니다. 일반적으로 대학별, 전공별 합격 기준 점수가 매년 변동되므로, 가장 정확한 정보는 해당 대학 입학처 웹사이트나 동의대학교 법경찰행정학부에서 확인해야 합니다.
+하지만, 대략적인 참고를 위해 다음과 같은 요소들을 고려할 수 있습니다:
+1. **전형별 평균 점수**: 일반적으로 수능 중심 전형과 실기/실적 중심 전형의 합격 기준이 다릅니다.
+2. **모집인원 및 지원자 수**: 모집인원이 적고 지원자가 많은 경우, 합격 기준 점수가 높아질 수 있습니다.
+3. **전공적합성 평가**: 서류평가와 면접평가에서 전공적합성을 중점적으로 평가하는 경우, 학업역량과 관련된 성적이 중요할 수 있습니다.
+**추천 조치:**
+- 동의대학교 입학처 웹사이트를 확인하여 최근 몇 년간의 정시 합격 기준 점수를 참조하세요.
+- 법경찰행정학부에 대한 전공적합성 평가 요소와 중요성을 파악하고, 이를 고려한 준비를 하세요.
+더 자세한 정보는 동의대학교 입학처 웹사이트나 직접 문의하는 것이 가장 정확할 것입니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 정시 합격 기준에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보가 누락되어 있습니다. 또한, 보육가정상담학과와 아동학과의 관계에 대한 명확한 설명이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 보육가정상담학과와 아동학과의 관계에 대한 설명이 모호하여 일관성이 떨어집니다. 원본 텍스트의 주요 포인트인 아동학과의 평균 등급에 대한 정보가 포함되지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 정시 합격 기준에 대한 정보를 제공하고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 아동학과의 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 단계가 잘 연결되어 있습니다. 그러나 아동학과와 보육가정상담학과의 관계에 대한 명확한 설명이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 합격 기준에 대한 정보를 제공하지만, 원본 텍스트의 아동학과 평균 등급에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있지만, 아동학과와 보육가정상담학과의 관계에 대한 설명이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6600724110038958</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 정시 합격 기준을 확인하기 위해서는 해당 학과의 최종 합격자들의 성적 데이터를 참조해야 합니다. 하지만 제공된 정보만으로 판단한다면, 정시 등급이 5.33인 경우 다음과 같은 절차를 따르겠습니다.
+보육가정상담학과는 일반적으로 인문사회과학대학에 속해 있습니다. 따라서, "나군(일반학생전형)"의 수능 전형성적 산출 방법을 적용할 수 있습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+등급 점수를 변환하여 합산하면 됩니다. 예를 들어, 5.33의 등급은 다음과 같이 변환됩니다:
+- 5.33 → 107 (등급에 따른 점수 변환표 참조)
+이제 이 점수를 다른 영역의 점수와 합산하여 보육가정상담학과의 최종 합격 기준을 초과하는지 확인해야 합니다.
+만약, 해당 학과의 평균 합격 점수가 400점 이상이라면, 107점을 포함한 총합이 충분히 높아야 합니다. 그러나 정확한 최종 합격 기준은 동의대학교의 공식 홈페이지나 입학처에서 확인해야 합니다.
+따라서, 현재 정보만으로는 확정적으로 합격할 수 있을지 알 수 없습니다. 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트를 참조하거나 입학처에 문의하는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 충원 합격자 발표에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차에 대한 설명으로 대체하고 있습니다. 이는 원본 텍스트의 구체적인 사실과 일치하지 않으며, 정보의 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 충원 합격자 발표에 대한 구체적인 정보를 제공하지 않고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 충원 합격에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 일반적인 절차에 대한 설명이 포함되어 있지만, 질문의 맥락에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 단계로 나뉘어 설명하고 있지만, 원본 텍스트의 흐름과는 다소 동떨어져 있습니다. 정보의 흐름이 매끄럽지 않으며, 원본 텍스트와의 연결성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 정보로 대체하고 있습니다. 이는 정확성에 부정적인 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락을 어느 정도 반영하고 있지만, 원본 텍스트의 구체적인 의미와는 다소 차이가 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 부분은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6226567358544394</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 보육가정상담 충원 합격 3차에 대한 내용이 포함되어 있지 않습니다. 따라서, 해당 학과와 전형에 대해 자세히 알려주실 필요가 있습니다.
+만약 동의대학교의 특정 학과에서 예비 합격을 받았다면, 일반적으로는 다음 단계로 진행됩니다:
+1. **합격자 발표 및 등록금 납부**: 해당 학과와 전형에 대한 최종 합격자를 발표하고, 합격자들이 등록금을 납부해야 합니다.
+2. **충원 합격자 발표 및 등록**: 충원 합격자를 발표하고, 합격자들이 등록금을 납부합니다.
+3. **최종 합격자 발표 및 등록**: 최종 합격자를 발표하고, 합격자들이 등록을 마무리합니다.
+만약 동의대학교 보육가정상담 충원 합격 3차에 대한 자세한 정보를 제공해주실 수 있다면, 더 정확한 답변을 드릴 수 있을 것입니다. 필요하다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 홈페이지를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 대한 정보에서 잘못된 사실을 포함하고 있습니다. 원본 텍스트에서는 유아교육학과의 평균 수능 등급이 4.18로, 4.75의 성적은 지원하기 어려운 것으로 명시되어 있습니다. 그러나 생성된 응답에서는 4.75의 성적이 유아교육학과에 충분한 경쟁력을 갖춘다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 유아교육학과에 대한 정보가 상반되며, 원본 텍스트의 내용을 반영하지 않고 있습니다. 이는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 유아교육학과에 대한 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 다른 학과에 대한 정보는 유용하지만, 질문의 핵심인 유아교육학과에 대한 정확한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 여러 학과에 대한 정보를 나열하고 있지만, 유아교육학과에 대한 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 깨집니다. 각 학과에 대한 설명이 명확하나, 유아교육학과의 정보가 모순되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 유아교육학과에 대한 정보가 원본 텍스트와 상충하여 정확성이 떨어집니다. 4.75의 성적이 유아교육학과에 적합하다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답의 의미는 대체로 적절하지만, 유아교육학과에 대한 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 유아교육학과에 대한 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 다른 학과에 대한 설명은 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.6963292766932843</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75의 수능 등급을 가지고 있는 경우, 각 단과대학 및 모집단위별로 경쟁률과 평균 등급 등을 고려하여 판단해야 합니다.
+1. **전기공학과와 전자공학과**:
+   - 이 두 과목은 비교적 높은 수능 등급을 요구합니다.
+   - 평균 4.98의 수능 등급을 가지고 있어 경쟁률이 높은 곳에서는 충분히 경쟁력을 갖추고 있지만, 낮은 경쟁률을 가진 곳에서는 더 높은 등급이 필요할 수 있습니다.
+2. **디지털콘텐츠학과**:
+   - 이 과목의 평균 수능 등급은 4.37입니다.
+   - 4.75의 등급으로는 충분히 경쟁력을 갖추고 있을 것입니다.
+3. **게임공학과와 영화학과**:
+   - 이 두 과목의 평균 수능 등급은 각각 4.87, 4.47입니다.
+   - 4.75의 등급으로는 충분히 경쟁력을 갖추고 있을 것입니다.
+4. **패션디자인학과**:
+   - 이 과목의 평균 수능 등급은 4.31입니다.
+   - 4.75의 등급으로는 충분히 경쟁력을 갖추고 있을 것입니다.
+5. **유아교육학과**:
+   - 이 과목의 평균 수능 등급은 4.18입니다.
+   - 4.75의 등급으로는 유아교육학과에서는 충분한 경쟁력을 갖추고 있을 것입니다.
+따라서, 4.75의 수능 등급을 가지고 있다면 대부분의 단과대학 및 모집단위에서 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 특히, 유아교육학과에서는 이 등급으로는 충분한 경쟁력을 갖추고 있을 것입니다.
+만약 특정 단과대학이나 모집단위에 지원하려면 해당 과목의 평균 수능 등급을 확인하고, 자신의 등급이 평균보다 높은지 낮은지를 판단하여 지원 가능성을 결정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하고 있으며, 수능 등급이 합격에 미치는 영향을 잘 설명하고 있습니다. 그러나 제공된 정보에서 '국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합'의 평균이 294.20이라는 점은 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 수능 등급이 합격 가능성에 미치는 영향을 잘 설명하고 있습니다. 그러나 '국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합'에 대한 언급이 원본 텍스트에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답의 대부분은 정확하지만, '국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합'의 평균에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 일부 정보의 출처가 불명확하여 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6122017309532136</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 '보육가정상담학과' 일반학생전형에 대한 정보를 바탕으로 답변 드리겠습니다.
+'보육가정상담학과' 일반학생전형은 '수능 위주'로 진행되며, 전형요소 반영비율이 100% 수능 점수가 차지합니다. 따라서 지원자의 수능 등급이 합격에 큰 영향을 미칩니다.
+제공된 정보에서 보육가정상담학과의 '국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합'의 평균은 294.20입니다. 지원자의 수능 등급이 4.16로, 이는 대략 300점대 중반에 해당합니다.
+보육가정상담학과의 '국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합' 평균은 294.20이고, 지원자의 수능 등급이 이보다 약간 높으므로 충분히 경쟁력을 갖추고 있습니다.
+하지만, 정확한 합격 여부는 해당 전형의 최저 점수 기준과 지원자들의 전체 성적 분포에 따라 결정됩니다. 따라서 최종 합격 여부를 확신하기 위해서는 동의대학교 입학처 웹사이트나 'https://ipsi. deu. ac. kr/main. do'에서 공식 정보를 확인하시거나, 입학처와 직접 문의하시는 것이 좋습니다.
+또한, 경쟁률과 지원 인원 수 등도 고려해야 합니다. 현재 제공된 정보만으로는 정확한 확신을 내기 어렵습니다. 최종 결정을 위해서는 동의대학교 입학처에서 공식적으로 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 정시 지원 절차와 평균 등급에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 상충되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 정시 지원이 불가능하다고 명확히 언급하고 있지만, 생성된 응답은 정시 지원에 대한 절차를 설명하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원에 대한 질문에 대한 답변으로는 적절하지 않지만, 정시 지원 절차에 대한 일반적인 정보를 제공하고 있습니다. 그러나 원본 질문과는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 일관성 부족으로 인해 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 일관성이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 내용을 포함하고 있습니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 무시하고 있어 전체적으로는 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 일관성이 부족하여 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4517353822406737</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 "소프트웨어융합학과"에 대한 자세한 내용이 없습니다. 이전의 데이터에서는 관련 학과가 없거나, 정시모집군 변경 등의 정보만 있습니다.
+하지만 일반적으로 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 절차와 평균 등급을 참고하실 수 있습니다:
+1. **정시모집군 확인**: 정시모집군이 어떤 군인지 확인해야 합니다. 예를 들어, "가군"이나 "나군" 등입니다.
+2. **평균 등급**: 각 모집단위별로 평균 등급을 확인합니다. 예를 들어, 전기공학과의 경우 평균 영어 등급이 4.13이었습니다. 이는 참고할 수 있는 기준이 될 수 있습니다.
+3. **경쟁률 및 지원 인원**: 경쟁률과 지원 인원도 고려해야 합니다. 경쟁률이 높을수록 더 높은 등급을 받아야 할 가능성이 큽니다.
+4. **대학별 특성**: 각 대학의 특성에 따라 요구하는 평균 등급이 다를 수 있습니다. 예를 들어, 특정 대학에서는 영어 등급이 4.5 이상을 요구할 수도 있습니다.
+따라서 "소프트웨어융합학과" 정시로 지원하려면 해당 학과의 정시모집군과 평균 등급 등을 확인하시고, 관련 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 통해 최신 정보와 요구 조건을 확인하시는 것이 좋습니다.
+만약 자세한 정보가 필요하다면 해당 대학의 입학처나 학과 홈페이지를 방문하거나, 전화로 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명된 면접 준비 내용은 유용하지만, 원문에서 언급된 서류 평가와 면접 고사에 대한 구체적인 정보가 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 면접 준비에 대한 정보를 제공하지만, 원문에서 강조된 서류 평가와 관련된 내용이 부족하여 일관성이 떨어집니다. 점수는 3입니다.
+3. Relevance Score (1-5): 4
+   - 면접 준비에 대한 정보는 관련성이 있지만, 원문에서 요구하는 서류와 평가 방식에 대한 정보가 부족하여 완전한 관련성은 아닙니다. 점수는 4입니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 점수는 4입니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 면접 준비에 대한 정보는 유용하지만, 원문에서 제공하는 구체적인 평가 기준과 서류에 대한 정보가 누락되어 있어 정확성 점수는 3입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 응답은 유용하지만 원문과의 일치성 및 정보의 완전성이 부족하여 점수는 3입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하며, 면접 준비에 대한 정보는 유용합니다. 그러나 원문과의 연결이 부족하여 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.3511900218460314</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접에서는 주로 지원동기, 학업역량, 전공적합성 등에 대한 질문이 제시됩니다. 따라서 면접에서의 성과를 높이기 위해서는 다음과 같은 내용을 잘 준비하는 것이 중요합니다:
+1. **지원동기 및 학업계획**: 지원 동기에 대해 명확하게 설명하고, 입학 후 어떤 학업 계획을 세울 것인지 구체적으로 이야기해야 합니다.
+2. **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 해결하기 위한 노력에 대해 이야기합니다. 이 때는 실제 경험을 바탕으로 작성하는 것이 좋습니다.
+3. **전공적합성**: 지원 전공(계열)과 관련된 교내 활동, 경험 등을 설명합니다. 이 때는 실제 활동 내용이 아닌 과장하거나 추상적으로 기재하지 않도록 주의해야 합니다.
+따라서 면접 준비를 위해 다음과 같은 서류가 필요할 수 있습니다:
+1. **학교생활기록부**: 학교생활기록부에서 지원 동기에 대한 증거와 학업 역량을 입증하는 내용을 찾아보세요.
+2. **진로 탐색 활동 기록**: 진로 탐색 활동과 관련된 활동 기록이나 보고서를 준비합니다.
+3. **창의적 체험활동 및 동아리 활동 기록**: 창의적 체험활동, 동아리 활동 등과 관련된 활동 기록을 수집하고 정리합니다.
+이러한 서류들은 면접에서 답변 내용을 지원하는 증거로 활용될 수 있습니다. 따라서 이러한 서류들을 잘 준비하여 면접에 임하면 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 성적에 대한 정보가 없다고 언급하지만, 원본 텍스트에서는 소프트웨어공학부의 최초합격자 평균 성적이 4.12라고 명시되어 있습니다. 따라서, 응답은 일부 사실을 누락하고 있으며, 소프트웨어공학부에 대한 정보가 없다는 주장은 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 정보가 없다고 하면서 공과대학의 성적 정보를 제공하고 있습니다. 이는 원본 텍스트와 일관성이 없으며, 소프트웨어공학부에 대한 질문에 대한 답변으로 적절하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 성적 정보를 제공하고 있지만, 질문의 핵심인 소프트웨어공학부에 대한 정보가 부족합니다. 그러나 공과대학의 성적 정보를 제공함으로써 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 정보를 포함하고 있지만, 소프트웨어공학부에 대한 질문에 대한 명확한 답변이 부족하여 논리적인 흐름이 약간 떨어집니다. 공과대학의 정보가 포함되어 있지만, 질문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 공과대학의 성적 정보를 제공하지만, 소프트웨어공학부에 대한 정보가 없다는 점에서 정확성이 떨어집니다. 원본 텍스트의 사실을 완전히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 질문에 대한 직접적인 답변이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답은 질문의 맥락과 다소 어긋나 있으며, 소프트웨어공학부에 대한 정보가 부족하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 소프트웨어공학부에 대한 정보가 부족하여 질문에 대한 명확한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7633710067558354</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 소프트웨어공학부에 대한 정시 성적 평균과 표준편차를 확인해보겠습니다. 하지만 제공된 데이터에는 소프트웨어공학부에 대한 정보가 없습니다.
+현재 제공된 데이터 중에서 가장 가까운 모집단위인 "공과대학"의 정보를 바탕으로 답변드리겠습니다.
+2024학년도 동의대학교 공과대학의 최초합격자 성적 평균은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 395.63, 표준 편차 12.03
+- 영어 등급: 평균 4.08, 표준 편차 0.86
+이 정보를 바탕으로, 정시 성적이 4.08인 경우 동의대학교 공과대학 최초합격자로 가능할 것으로 보입니다.
+하지만 소프트웨어공학부에 대한 특별한 요구사항이나 추가적인 평가 요소가 있는지 확인하시기 바랍니다. 만약 더 자세한 정보를 원하신다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집이 중지되었다고 언급하고 있으나, 원본 텍스트에서는 그러한 정보가 제공되지 않습니다. 또한, 정시 평균 5등급으로 지원할 수 있는지에 대한 직접적인 답변이 없다고 하였으나, 원본 텍스트에서도 그러한 정보가 명시되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있습니다. 원본 텍스트는 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 정시 모집이 중지되었다는 정보는 원본에 포함되어 있지 않습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 일부 정보는 원본 텍스트와 일치하지 않거나 추가적인 해석을 포함하고 있습니다. 그러나 전반적으로 관련성이 높다고 평가할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적 일관성이 떨어지는 부분이 있습니다. 따라서 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 정시 모집이 중지되었다는 주장은 원본 텍스트에 명시되어 있지 않으므로 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제를 보이고 있습니다. 따라서 중간 정도의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 일부 정보가 부정확하여 의미 전달에 혼란을 줄 수 있습니다. 따라서 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있는 점이 있어 약간의 감점을 하였습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.7264535995416683</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보는 각 학과별 지원 자격, 모집 인원, 경쟁률 등에 대한 통계 데이터만을 포함하고 있으며, 소프트웨어융합학과의 정시 평균 5등급으로 해당 학과에 지원할 수 있는지에 대한 직접적인 답변은 없습니다. 
+소프트웨어융합학과는 정시 모집이 중지된 상태로 보입니다. 따라서 현재는 소프트웨어융합학과에 지원하는 것이 불가능합니다.
+추가 정보를 원하시거나, 다른 학과에 대한 지원 가능성을 확인하려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시는 것을 추천드립니다. 해당 사이트에서는 최신의 모집 정보와 지원 자격 등을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 평균 성적과 표준 편차에 대한 언급이 추가되어 있어 원본의 내용을 완전히 반영하지 않고 있습니다. 원본 텍스트는 합격 가능성에 대한 판단을 제공하고 있지만, 생성된 응답은 추가적인 정보 요청을 강조하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 합격 가능성에 대한 판단을 다르게 접근하고 있습니다. 원본 텍스트는 성적이 평균보다 높다고 판단했지만, 생성된 응답은 평균 성적과 표준 편차를 고려해야 한다고 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보 요청이 포함되어 있어 약간의 주제 이탈이 있습니다. 그러나 여전히 동의대학교 신소재공학과에 대한 합격 가능성에 대한 질문에 답하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 평균 성적과 표준 편차에 대한 언급이 사실과 다를 수 있으며, 원본의 결론과는 다른 방향으로 나아가고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보 요청이 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.5815767276400701</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 확률을 판단하기 위해서는 해당 대학과 전공의 평균 성적과 표준 편차를 고려해야 합니다.
+현재 제공된 데이터에는 동의대학교 신소재공학과의 정확한 평균 성적과 표준 편차가 포함되어 있지 않습니다. 그러나 일반적으로 대학별로 합격 기준이 다르므로, 동의대학교 신소재공학과의 최신 합격 기준을 확인하는 것이 중요합니다.
+만약 해당 정보를 얻지 못한 경우, 다음과 같은 방법들을 추천드립니다:
+1. **동의대학교 입학처 웹사이트**를 방문하여 가장 최신의 합격 기준을 확인하세요.
+2. **입시 컨설팅 서비스**를 이용해 전문가와 상담을 받으세요.
+3. **동의대학교 신소재공학과 동문이나 선배들**에게 직접 문의해 보세요.
+이러한 정보를 통해 더 정확한 판단을 내릴 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 잘못되어 있습니다. 원문에서는 자기소개서가 필요 없다고 명시하고 있지만, 생성된 응답은 일반적인 학생들이 자기소개서를 작성할 필요가 없다고 언급하고 있습니다. 그러나 추가적인 정보와 조건을 제시하고 있어 혼란을 초래합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 자기소개서의 필요성에 대한 정보가 상충합니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 다른 조건을 제시하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주제의 핵심인 자기소개서의 필요성에 대한 질문에 대한 직접적인 답변이 부족합니다. 추가적인 정보는 있지만, 질문의 핵심에 대한 직접적인 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원문에서 제시한 질문에 대한 명확한 답변이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실관계가 틀립니다. 자기소개서가 필요 없다는 원문의 주장을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 원문과의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 다르게 해석되고 있으며, 질문의 맥락에 맞지 않는 정보가 포함되어 있습니다. 원문의 의도를 잘못 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 떨어져서 질문의 의도를 파악하기 어려울 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.3304167294403442</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生不需要写自传。对于通过普通学生入学考试（一般学生选拔）进入大学的情况，主要依赖于高考成绩和部分学校可能要求的申请表或补充材料来评估学生的学术能力和潜力。
+如果您的目标是通过普通学生选拔（一般学生选拔）进入特定的大学，请注意以下几点：
+1. **查看招生简章**：仔细阅读您感兴趣的大学和专业的招生简章，了解具体的录取条件和需要提交的材料。
+2. **高考成绩**：主要依赖于高考的成绩。不同专业可能会有不同的科目组合要求。
+3. **申请表或补充材料**：有些学校可能还需要填写申请表或者提供一些额外的材料，如个人陈述、推荐信等。
+如果您不确定具体的要求，请访问该大学的官方网站（https://ipsi. deu. ac. kr/main. do）查看最新的招生信息。如果有任何疑问，可以直接联系学校的招生办公室获取详细指导。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 여러 요소를 잘 설명하고 있으며, 추가 모집에 대한 정보도 포함되어 있습니다. 그러나 "4.5라는 점수는 상당히 높은 점수입니다"라는 부분은 다소 주관적일 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 추가 모집에 대한 설명도 원본의 내용과 잘 연결되어 있습니다. 다만, 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분 정확하지만, "4.5라는 점수는 상당히 높은 점수입니다"라는 주관적인 표현이 다소 논란의 여지가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 주관적인 표현이 있어 점수를 약간 낮췄습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 주관적일 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.5940092516881368</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 들어갈 수 있는지 결정하는 요소들은 여러 가지가 있습니다.
+1. **경쟁률**: 각 모집단위의 경쟁률이 매우 중요합니다. 경쟁률이 높다면, 4.5라는 점수로도 충분히 합격할 수 있을 것입니다. 하지만 경쟁률이 낮다면, 다른 지원자들의 점수가 더 높을 가능성이 있습니다.
+2. **모집인원과 지원인원**: 모집단위의 모집인원과 지원인원의 비율도 중요합니다. 예를 들어, 모집인원이 10명이고 지원인원이 50명이라면 경쟁률은 높을 것입니다.
+3. **가산점**: 일부 모집단위에서는 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수에 10%의 가산점을 주는 등의 요소들이 있습니다. 이 점수도 고려해야 합니다.
+4. **평균점수와 표준편차**: 각 모집단위별로 평균점수와 표준편차가 다르므로, 이들 정보를 참고하여 자신의 점수가 어느 정도의 위치에 있는지 판단하는 것이 중요합니다.
+5. **면접 결과**: 일부 전형에서는 면접 결과도 중요한 요소입니다. 따라서 면접 준비도 철저히 해야 합니다.
+위와 같은 여러 요소들을 종합적으로 고려하여 결정을 내리는 것이 좋습니다. 만약 구체적인 정보가 필요하다면, 해당 대학의 입시 홈페이지나 학교 관계자에게 문의하는 것을 추천드립니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준 점수나 등급 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 평균 등급에 대한 구체적인 정보가 제공되고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본의 구체적인 수치를 언급하지 않아 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 신소재공학부의 평균 등급에 대한 언급이 없어서 일관성이 떨어집니다. 원본 텍스트의 평균 등급 정보와 관련된 내용이 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 신소재공학부의 합격 기준에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 특정 정보를 포함하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 평균 등급에 대한 구체적인 수치를 언급하지 않아 정확성이 다소 떨어집니다. 그러나 전반적으로 정확한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 원본의 구체적인 수치 정보를 포함하지 않아 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6551264330810146</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 특정 합격 기준 점수나 등급 정보가 없습니다. 신소재공학부는 가군(일반학생전형) 또는 다군(일반학생전형)으로 모집되며, 수능 성적 산출 방법이 다르므로 정확한 합격 가능 등급을 알기 위해서는 해당 단과대학의 정시 모집요강을 확인해야 합니다. 
+정시 모집요강은 동의대학교 웹사이트에서 확인할 수 있으며, 그 안에 특정 학부의 합격 기준 점수나 등급이 명시되어 있을 것입니다.
+만약 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 동의대학교 웹사이트에서 정시 모집요강을 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 귀하의 점수를 비교하며, 여러 요인(경쟁률, 지원 인원, 모집 인원 등)을 고려해야 한다고 언급하고 있습니다. 그러나 작년 평균 점수인 378.15점이 명시되지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 추가적인 요인들을 고려해야 한다는 점에서 일관성을 유지하고 있습니다. 다만, 원본의 긍정적인 합격 가능성 언급과는 다소 다른 뉘앙스를 주고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명합니다. 그러나 약간의 중복이 있어 더 간결하게 표현될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 요인들을 고려하는 점에서 정확성을 유지하고 있습니다. 그러나 작년 평균 점수에 대한 구체적인 수치가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 긍정적인 평가를 받을 수 있습니다. 그러나 약간의 정보 누락이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 원본의 긍정적인 뉘앙스와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7341333908613886</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준 변환 점수 합이 447점인 경우, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았던 것은 사실입니다. 하지만 이는 단순히 작년 데이터만으로 판단하는 것이 아니라 여러 요인이 함께 작용합니다.
+1. **경쟁률**: 작년과 올해의 경쟁률이 어떻게 되었는지 확인해야 합니다. 경쟁률이 더 높아졌다면, 점수가 같더라도 합격 가능성은 낮아질 수 있습니다.
+2. **지원 인원**: 작년에 지원한 인원이 많았다면, 올해의 지원 인원도 많은 편이라면 합격 가능성은 줄어들 수 있습니다.
+3. **모집인원 및 충원 합격자 수**: 작년과 올해의 모집인원 및 충원 합격자 수가 어떻게 되었는지 확인해야 합니다.
+이러한 요소들을 종합적으로 고려하여 판단하는 것이 중요합니다. 만약 구체적인 정보를 가지고 있다면, 해당 정보를 바탕으로 분석을 진행할 수 있습니다. 
+만약 자세한 정보나 추가적인 도움이 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입학사정관실에 문의하시거나, 해당 사이트에서 제공하는 자료를 참고해보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부의 성적 기준과 관련된 정보를 잘 반영하고 있으며, 합격 가능성에 대한 논의도 적절합니다. 그러나, 4.3등급이 4.1~4.2로 변환되는지에 대한 구체적인 정보가 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 신소재공학부의 성적 기준과 합격 가능성에 대한 논의가 일치합니다. 다만, 일부 세부 사항에서 약간의 차이가 있어 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성을 높이기 위한 여러 요소를 제시하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나, 일부 부분에서 더 명확한 연결이 필요할 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 4.3등급의 변환에 대한 구체적인 정보가 부족하여 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선의 여지가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 모호함이 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5665235971606403</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3등급의 수능 점수가 정시 성적 산출 방법에 따라 4.1~4.2 정도로 나오는 경우, 신소재공학과의 일반학생전형에서 합격 가능성을 높이기 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **정시 성적 산출 방법**: 동의대학교의 정시 성적 산출 방법을 확인하여 4.3등급이 4.1~4.2 정도로 변환되는지 확인합니다.
+2. **경쟁률**: 신소재공학과의 경쟁률을 확인합니다. 현재의 성적이 경쟁률에 따라 합격 가능성을 결정하게 됩니다.
+3. **모집인원 및 지원인원**: 신소재공학과의 모집인원과 지원 인원을 확인하여, 지원 인원이 많지 않다면 합격 가능성은 높아질 수 있습니다.
+4. **기타 평가 요소**: 일부 전형에서는 학생부 등 다른 평가 요소도 고려하므로, 학생부의 성적과 활동 등을 잘 준비해야 합니다.
+5. **전형별 특징**: 신소재공학과의 일반학생전형은 주로 수능 점수를 기반으로 하므로, 현재 예상 성적이 경쟁력을 갖추고 있다면 합격 가능성은 있습니다.
+이러한 정보들을 종합적으로 고려하여 결정을 내리는 것이 좋습니다. 만약 자세한 내용을 확인하고 싶다면, 동의대학교의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시거나, 직접 동의대학교 입학처에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 성적에 대한 구체적인 정보를 제공하지 않고, 성적 산출 방법에 대한 설명과 예시를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 최초합격자 성적에 대한 내용이 누락되어 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정 성적 데이터를 제공하는 반면, 생성된 응답은 성적 산출 방법에 대한 설명으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 최초합격자 성적에 대한 정보와는 관련성이 떨어집니다. 따라서 적절한 관련성을 가지고 있지만, 핵심 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 성적 산출 방법에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 제공하지 않으며, 성적 산출 방법에 대한 설명이 포함되어 있지만, 이는 원본 텍스트의 사실과는 다릅니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 관련성도 부족하여 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절하나, 원본의 의도와는 다릅니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 성적 산출 방법에 대한 설명이 명확합니다. 그러나 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.8314579212205904</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 ICT융합공과대학 인공지능학과는 수능 일반학생전형을 통해 모집하며, 성적 산출 방법은 다음과 같습니다:
+1. **국어 표준점수**
+2. **수학 표준점수** (미적분 또는 기하 응시자의 경우, 수학 표준점수 x 0.1 가산)
+3. **영어 등급점수**
+4. **탐구 영역 표준점수 (2개 과목)**
+이 성적을 합산하여 평균 점수와 표준 편차를 산출합니다.
+예시로, 특정 학생의 성적이 다음과 같다고 가정해보겠습니다:
+- 국어: 105점
+- 수학(미적분): 109점 (가산점 포함)
+- 영어: 4등급 (131점)
+- 탐구 영역 (2개 과목): 47점, 58점
+이 경우의 성적 합산은 다음과 같습니다:
+\[ 105 + (109 \times 1.1) + 131 + (47 + 58) / 2 = 105 + 120 + 131 + 52.5 = 408.5 \]
+이 점수는 평균 점수와 표준 편차를 산출하는 데 사용됩니다.
+**주의사항:**
+- 실제 성적은 개인의 성적이 반영되므로, 이 예시는 참고용입니다.
+- 동의대학교의 최종 합격 기준은 전체 지원자의 성적 분포와 경쟁률에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 공식 웹사이트나 입학처에서 확인하는 것이 좋습니다.
+더 자세한 정보가 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 5.27의 성적이 충원 합격 가능성에 대한 여러 요인을 언급하고 있으며, 평균 등급과 경쟁률을 고려해야 한다고 설명하고 있습니다. 그러나 구체적인 학과의 평균 성적에 대한 언급이 부족하여 일부 정보가 누락된 것으로 평가됩니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 5.27의 성적이 높은 점수라는 점을 강조하고 있습니다. 그러나 특정 학과의 평균 성적을 언급하면서도, 원본 텍스트에서 제공된 구체적인 데이터와의 직접적인 비교가 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 5.27의 성적과 관련된 정보에 초점을 맞추고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 요인을 명확하게 나열하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와의 연결이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 5.27의 성적에 대한 일반적인 정보와 관련된 사실을 정확하게 전달하고 있습니다. 그러나 특정 학과의 평균 성적에 대한 구체적인 비교가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부 사항이 누락되어 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 특정 세부 사항에 대한 언급이 부족하여 완전한 적절성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6622661187584141</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급은 비교적 높은 점수입니다. 하지만 추합 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **모집단위의 경쟁률**: 각 모집단위마다 다른 경쟁률이 있으므로, 해당 단과대학 및 모집단위의 경쟁률을 확인해야 합니다.
+2. **평균 등급**: 제공된 데이터에서 평균 등급을 확인할 수 있습니다. 예를 들어, "수능 4개 영역 등급" 항목에서 각 단과대학별로 평균 등급이 주어져 있습니다.
+예를 들어, 인문사회과학대학의 경찰행정학과에서는 평균 등급이 4.27이고 표준 편차가 0.18입니다. 이 경우 5.27은 상당히 높은 점수로, 충분히 경쟁력을 갖추고 있을 수 있습니다.
+하지만, 다른 단과대학이나 모집단위에서는 평균 등급이 더 낮거나 높을 수 있으므로, 해당 단과대학 및 모집단위의 평균 등급과 비교해야 합니다. 
+따라서, 정확한 추합 가능성 판단을 위해서는:
+1. 각 단과대학 및 모집단위의 경쟁률을 확인합니다.
+2. 해당 단과대학 및 모집단위의 평균 등급을 확인합니다.
+이 정보를 바탕으로 판단할 수 있습니다. 만약 더 자세한 정보가 필요하다면, 제공된 데이터를 참조하거나 대학 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 수능 등급을 4.12로 언급하고 있지만, 원본 텍스트에서는 4.49로 명시되어 있습니다. 또한, 지원 인원과 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 사실과 다를 수 있습니다. 따라서, 일부 정보는 정확하지만, 다른 부분에서 오류가 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 수능 등급에 대한 정보가 다르며, 추가적인 정보가 포함되어 있습니다. 이로 인해 일관성이 떨어지며, 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 지원자의 성적에 대한 분석을 제공합니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 문제가 있을 수 있습니다. 따라서 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 다르기 때문에 완전한 일관성을 유지하지는 못합니다. 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 수능 등급과 관련된 정보가 원본 텍스트와 다릅니다. 이로 인해 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 문제가 있어 전반적인 품질이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 추가되어 있어 원본의 의도를 완전히 반영하지는 못합니다. 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡할 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6995971598423477</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로 분석해보겠습니다.
+소프트웨어공학부의 경우, 지원 인원이 146명이고 모집 인원은 30명입니다. 이는 경쟁률이 약 4.87:1인 것을 의미합니다. 또한, 평균 수능 4개 영역 등급이 4.12이며, 표준 편차가 0.32라는 점을 고려하면, 합격선은 상대적으로 높게 설정되어 있을 가능성이 큽니다.
+당신의 정시 성적인 4.2는 평균 수능 등급보다 약간 높습니다. 그러나 표준 편차가 작다는 점을 고려하면, 합격선이 상대적으로 높은 수준일 가능성이 큽니다.
+따라서, 정시 성적 4.2로 소프트웨어공학부에 합격할 확률은 낮다고 판단할 수 있습니다. 그러나 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 예측을 위해서는 동의대학교의 최종 합격선과 지원자의 성적 분포를 확인하는 것이 좋습니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조하시거나 관계된 부서에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하지 않고, 지원 가능성에 대한 판단을 어렵다고 언급하고 있습니다. 이는 원본 텍스트에서 제공된 정보와 상충하며, 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 화학환경공학부의 평균 등급에 대한 정보가 누락되어 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부에 대한 지원 가능성에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와는 거리가 있습니다. 관련성은 있지만, 충분하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 정보와 연결되지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 지원 가능성에 대한 판단을 어렵다고 하여 원본의 긍정적인 내용을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.642786444157264</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 화학환경공학부에 대한 모집단위와 정원 내 모집 인원, 그리고 해당 학과의 수능 반영 영역 및 가산점 등에 대한 자세한 내용이 명시되어 있지 않습니다. 따라서 현재로서는 화학환경공학부에서 일반학생전형으로 지원 가능할지 여부를 판단하기 어렵습니다.
+추가 정보를 얻기 위해서는 다음과 같은 웹사이트를 참조하거나 대학의 입학처에 문의하시는 것이 좋겠습니다:
+- https://ipsi. deu. ac. kr/main. do
+이 사이트에서 해당 학과와 전형에 대한 자세한 내용을 확인하실 수 있습니다. 특히, 화학환경공학부의 모집단위, 정원 내 모집 인원, 수능 반영 영역 및 가산점 등에 대한 정보를 얻으시면 지원 가능성을 판단하는데 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 기준에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트에서 제공된 구체적인 데이터와 비교할 때, 응답은 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제시된 합격 가능성에 대한 판단을 무시하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 정보와 연결되지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 합격 가능성에 대한 판단을 제공하지 않기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답은 전반적으로 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트의 질문에 대한 명확한 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6525920341699768</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부에 대한 정확한 합격 기준을 제공하기 위해서는 해당 단과대학 및 모집단위의 성적 분포와 평균 점수 등을 확인해야 합니다. 현재 제공된 정보만으로는 특정 단과대학의 최종 합격 기준을 알 수 없습니다.
+화학환경공학부에 대한 정확한 합격 기준은 다음과 같은 웹사이트를 참조하시거나, 동의대학교 입학처에 직접 문의하시는 것이 가장 정확할 것입니다:
+[https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)
+이 웹사이트에서 더 자세한 정보를 얻으실 수 있습니다. 또한, 제공된 성적(4.25)과 동의대학교 화학환경공학부의 평균 점수와 표준 편차 등을 비교하여 합격 가능성을 판단해 보시는 것도 좋습니다.
+만약 추가로 도움이 필요하시다면, 다시 문의 주세요.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 영화학과의 평균 점수와 표준 편차가 잘못된 수치로 제시되었습니다. 원본 텍스트에 따르면, "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균은 286.77이고 표준 편차는 17.29입니다. 그러나 생성된 응답에서는 평균이 303.80이고 표준 편차가 11.23로 잘못 기재되었습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히 평균 점수와 표준 편차의 수치가 다르기 때문에 일관성이 떨어집니다. 또한, 표준 변환 점수 계산식이 원본 텍스트의 정보와 맞지 않아서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련성이 높습니다. 영화학과의 합격 가능성에 대한 정보를 제공하고 있지만, 잘못된 수치로 인해 신뢰성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 수치의 오류로 인해 내용의 신뢰성이 떨어지므로 약간의 감점이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 잘못된 수치로 인해 전체적인 일관성이 떨어집니다. 따라서 응답의 일관성이 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 수치가 원본 텍스트와 일치하지 않기 때문에 정확성이 낮습니다. 특히 평균 점수와 표준 편차의 수치가 잘못되어 있어 정확성이 크게 저하되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성이 낮아 전체적인 품질이 떨어집니다. 관련성은 높지만, 정확성과 일관성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있지만, 잘못된 수치로 인해 의미 전달이 왜곡되었습니다. 따라서 의미의 적절성이 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있습니다. 그러나 수치의 오류로 인해 혼란을 줄 수 있으므로 약간의 감점이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6984028013058777</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 영화학과를 지원하셨다면, 평균 점수와 표준 편차를 고려해보겠습니다.
+영화학과의 경우, "국어  + 수학  + 탐구(2개)  (가산점 포함) 표준 변환 점수 합"의 평균이 303.80이고 표준 편차는 11.23입니다.
+당신의 성적 4.2를 표준 변환 점수로 환산하면 다음과 같습니다:
+\[ \text{표준 변환 점수} = (\text{성적} - \text{평균}) / \text{표준 편차} \times 10 + 305 \]
+\[ \text{표준 변환 점수} = (4.2 - 3.038) / 1.123 \times 10 + 305 \approx 367.9 \]
+이 값은 영화학과의 평균 표준 변환 점수보다 높습니다. 따라서, 성적이 4.2인 경우 합격 가능성은 상당히 높다고 볼 수 있습니다.
+하지만, 최종 결정은 서류평가와 면접평가 등 다양한 요소를 고려한 입학사정관의 판단에 따라 결정되므로, 지원하신 대학에서 제공하는 자세한 평가 기준을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 "이 절차는 모든 면접에서 동일하게 적용되며, 개별면접으로 진행됩니다."라는 문장이 포함되어 있습니다. 이 문장은 일반적인 면접 절차에 대한 설명으로 보이지만, 원본 텍스트에는 그러한 정보가 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차와 일치하며, 추가적인 설명이 포함되어 있지만, 원본의 내용과 모순되지 않습니다. 그러나 원본 텍스트에 없는 정보가 추가되어 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 순서대로 나열하고 추가 설명이 자연스럽게 이어집니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 설명이 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 모두 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 추가된 정보가 원본에 없기 때문에 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 따라서 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9208492910564425</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용되며, 개별면접으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
